--- a/CROX.xlsx
+++ b/CROX.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E92C4C-47EB-4E47-83FC-2DF79D2DBAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E5E9CF-4358-496D-804D-A1D860953248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{CE56C274-430F-49C4-B695-C61D5C0F48E5}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="340">
   <si>
     <t>Crocs Inc.</t>
   </si>
@@ -1119,6 +1119,12 @@
   </si>
   <si>
     <t>Crocs number one brand on Tik Tok shops</t>
+  </si>
+  <si>
+    <t>Guidance: Revenues for Q3 down to be down between 9-11%</t>
+  </si>
+  <si>
+    <t>Operating Margin of approximately 18 to 19%</t>
   </si>
 </sst>
 </file>
@@ -1742,16 +1748,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>4763</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:rowOff>157163</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>14288</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1766,7 +1772,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7410450" y="166688"/>
+          <a:off x="8015288" y="157163"/>
           <a:ext cx="9525" cy="8701087"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2229,10 +2235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0752DB2D-B359-487B-8CEA-5CA0DA6B29B3}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2255,7 +2261,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="4">
-        <v>111.22</v>
+        <v>55.783000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2266,7 +2272,7 @@
         <v>56.11</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2278,7 +2284,7 @@
       </c>
       <c r="H4" s="4">
         <f>H3*H2</f>
-        <v>6240.5541999999996</v>
+        <v>3129.9841299999998</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2289,11 +2295,10 @@
         <v>5</v>
       </c>
       <c r="H5" s="4">
-        <f>166.46+3.277</f>
-        <v>169.73699999999999</v>
+        <v>200.61099999999999</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2301,10 +2306,10 @@
         <v>6</v>
       </c>
       <c r="H6" s="4">
-        <v>1481.7249999999999</v>
+        <v>1379.1120000000001</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2325,7 +2330,7 @@
       </c>
       <c r="H7" s="4">
         <f>H4+H6-H5</f>
-        <v>7552.542199999999</v>
+        <v>4308.48513</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2477,6 +2482,16 @@
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>337</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -2494,10 +2509,10 @@
   <dimension ref="A1:AD296"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K30" sqref="K30"/>
+      <selection pane="bottomRight" activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2934,7 +2949,9 @@
       <c r="K12" s="4">
         <v>368.517</v>
       </c>
-      <c r="L12" s="4"/>
+      <c r="L12" s="4">
+        <v>457.13</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -2997,7 +3014,9 @@
       <c r="K13" s="4">
         <v>393.09100000000001</v>
       </c>
-      <c r="L13" s="4"/>
+      <c r="L13" s="4">
+        <v>502.46</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -3058,7 +3077,10 @@
       <c r="K14" s="4">
         <v>761.60799999999995</v>
       </c>
-      <c r="L14" s="4"/>
+      <c r="L14" s="4">
+        <f>+L12+L13</f>
+        <v>959.58999999999992</v>
+      </c>
       <c r="M14" s="4"/>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
@@ -3119,7 +3141,9 @@
       <c r="K15" s="4">
         <v>175.72499999999999</v>
       </c>
-      <c r="L15" s="4"/>
+      <c r="L15" s="4">
+        <v>189.78299999999999</v>
+      </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
@@ -3186,7 +3210,10 @@
         <f>476.804+110.693</f>
         <v>587.49699999999996</v>
       </c>
-      <c r="L16" s="4"/>
+      <c r="L16" s="4">
+        <f>464.679+99.76</f>
+        <v>564.43899999999996</v>
+      </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
@@ -3256,7 +3283,10 @@
         <f>284.804+65.032</f>
         <v>349.83599999999996</v>
       </c>
-      <c r="L17" s="4"/>
+      <c r="L17" s="4">
+        <f>494.911+90.023</f>
+        <v>584.93399999999997</v>
+      </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
@@ -3321,7 +3351,9 @@
       <c r="K18" s="5">
         <v>937.33299999999997</v>
       </c>
-      <c r="L18" s="5"/>
+      <c r="L18" s="5">
+        <v>1149.373</v>
+      </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
@@ -3388,7 +3420,9 @@
       <c r="K19" s="4">
         <v>395.78399999999999</v>
       </c>
-      <c r="L19" s="4"/>
+      <c r="L19" s="4">
+        <v>440.53699999999998</v>
+      </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
@@ -3439,7 +3473,7 @@
         <v>522.077</v>
       </c>
       <c r="H20" s="4">
-        <f t="shared" ref="H20:K20" si="4">H18-H19</f>
+        <f t="shared" ref="H20:L20" si="4">H18-H19</f>
         <v>681.91599999999994</v>
       </c>
       <c r="I20" s="4">
@@ -3454,7 +3488,10 @@
         <f t="shared" si="4"/>
         <v>541.54899999999998</v>
       </c>
-      <c r="L20" s="4"/>
+      <c r="L20" s="4">
+        <f t="shared" si="4"/>
+        <v>708.83600000000001</v>
+      </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
@@ -3520,7 +3557,9 @@
       <c r="K21" s="4">
         <v>318.57499999999999</v>
       </c>
-      <c r="L21" s="4"/>
+      <c r="L21" s="4">
+        <v>1136.3520000000001</v>
+      </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
@@ -3573,7 +3612,7 @@
         <v>226.42899999999997</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" ref="H22:K22" si="8">H20-H21</f>
+        <f t="shared" ref="H22:L22" si="8">H20-H21</f>
         <v>325.73799999999994</v>
       </c>
       <c r="I22" s="4">
@@ -3588,7 +3627,10 @@
         <f t="shared" si="8"/>
         <v>222.97399999999999</v>
       </c>
-      <c r="L22" s="4"/>
+      <c r="L22" s="4">
+        <f t="shared" si="8"/>
+        <v>-427.51600000000008</v>
+      </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -3654,7 +3696,9 @@
       <c r="K23" s="4">
         <v>-4.8730000000000002</v>
       </c>
-      <c r="L23" s="4"/>
+      <c r="L23" s="4">
+        <v>-0.434</v>
+      </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -3713,7 +3757,9 @@
       <c r="K24" s="4">
         <v>0.33300000000000002</v>
       </c>
-      <c r="L24" s="4"/>
+      <c r="L24" s="4">
+        <v>0.371</v>
+      </c>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
@@ -3772,7 +3818,9 @@
       <c r="K25" s="4">
         <v>22.765999999999998</v>
       </c>
-      <c r="L25" s="4"/>
+      <c r="L25" s="4">
+        <v>22.523</v>
+      </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
@@ -3831,7 +3879,9 @@
       <c r="K26" s="4">
         <v>-0.47499999999999998</v>
       </c>
-      <c r="L26" s="4"/>
+      <c r="L26" s="4">
+        <v>0.627</v>
+      </c>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
@@ -3894,10 +3944,13 @@
         <v>175.26140000000044</v>
       </c>
       <c r="K27" s="4">
-        <f t="shared" si="11"/>
+        <f>K22-K23+K24-K25+K26</f>
         <v>204.93899999999999</v>
       </c>
-      <c r="L27" s="4"/>
+      <c r="L27" s="4">
+        <f>L22-L23+L24-L25+L26</f>
+        <v>-448.60700000000008</v>
+      </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
@@ -3963,7 +4016,9 @@
       <c r="K28" s="4">
         <v>44.835999999999999</v>
       </c>
-      <c r="L28" s="4"/>
+      <c r="L28" s="4">
+        <v>43.674999999999997</v>
+      </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
@@ -4015,7 +4070,7 @@
         <v>152.45400000000001</v>
       </c>
       <c r="H29" s="4">
-        <f t="shared" ref="H29:K29" si="13">H27-H28</f>
+        <f t="shared" ref="H29:J29" si="13">H27-H28</f>
         <v>228.90699999999995</v>
       </c>
       <c r="I29" s="4">
@@ -4027,10 +4082,13 @@
         <v>368.93640000000039</v>
       </c>
       <c r="K29" s="4">
-        <f t="shared" si="13"/>
+        <f>K27-K28</f>
         <v>160.10300000000001</v>
       </c>
-      <c r="L29" s="4"/>
+      <c r="L29" s="4">
+        <f>L27-L28</f>
+        <v>-492.2820000000001</v>
+      </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
@@ -4125,7 +4183,10 @@
         <f>+K29/K32</f>
         <v>2.8533772945998934</v>
       </c>
-      <c r="L31" s="4"/>
+      <c r="L31" s="7">
+        <f>+L29/L32</f>
+        <v>-8.8249466683398179</v>
+      </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
@@ -4189,7 +4250,9 @@
       <c r="K32" s="4">
         <v>56.11</v>
       </c>
-      <c r="L32" s="4"/>
+      <c r="L32" s="4">
+        <v>55.783000000000001</v>
+      </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
@@ -4577,7 +4640,7 @@
         <v>6.1602685468565843E-2</v>
       </c>
       <c r="H42" s="8">
-        <f t="shared" ref="H42:K42" si="20">H18/D18-1</f>
+        <f t="shared" ref="H42:L42" si="20">H18/D18-1</f>
         <v>3.6494036090256365E-2</v>
       </c>
       <c r="I42" s="8">
@@ -4592,7 +4655,10 @@
         <f t="shared" si="20"/>
         <v>-1.3849928566330716E-3</v>
       </c>
-      <c r="L42" s="8"/>
+      <c r="L42" s="8">
+        <f t="shared" si="20"/>
+        <v>3.4071913500830497E-2</v>
+      </c>
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="5"/>
@@ -4661,10 +4727,13 @@
         <v>0.57884585657519483</v>
       </c>
       <c r="K43" s="6">
-        <f t="shared" ref="K43" si="24">K20/K18</f>
+        <f t="shared" ref="K43:L43" si="24">K20/K18</f>
         <v>0.57775518412346516</v>
       </c>
-      <c r="L43" s="6"/>
+      <c r="L43" s="6">
+        <f t="shared" si="24"/>
+        <v>0.61671537438238067</v>
+      </c>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
       <c r="O43" s="4"/>
@@ -4734,10 +4803,13 @@
         <v>0.20198065617065772</v>
       </c>
       <c r="K44" s="6">
-        <f t="shared" ref="K44" si="29">K22/K18</f>
+        <f t="shared" ref="K44:L44" si="29">K22/K18</f>
         <v>0.23788130792365147</v>
       </c>
-      <c r="L44" s="6"/>
+      <c r="L44" s="6">
+        <f t="shared" si="29"/>
+        <v>-0.37195584027117401</v>
+      </c>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
       <c r="O44" s="4"/>
@@ -4807,10 +4879,13 @@
         <v>0.37274849889823258</v>
       </c>
       <c r="K45" s="6">
-        <f t="shared" ref="K45" si="34">K29/K18</f>
+        <f t="shared" ref="K45:L45" si="34">K29/K18</f>
         <v>0.17080695974642951</v>
       </c>
-      <c r="L45" s="6"/>
+      <c r="L45" s="6">
+        <f t="shared" si="34"/>
+        <v>-0.42830482358642502</v>
+      </c>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
       <c r="O45" s="4"/>
@@ -4880,39 +4955,42 @@
         <v>-1.1050636363740076</v>
       </c>
       <c r="K46" s="6">
-        <f t="shared" ref="K46" si="39">K28/K27</f>
+        <f>K28/K27</f>
         <v>0.21877729470720556</v>
       </c>
-      <c r="L46" s="6"/>
+      <c r="L46" s="6">
+        <f>L28/L27</f>
+        <v>-9.735692933904283E-2</v>
+      </c>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
       <c r="O46" s="4"/>
       <c r="P46" s="6">
-        <f t="shared" ref="P46" si="40">P28/P27</f>
+        <f t="shared" ref="P46" si="39">P28/P27</f>
         <v>2.0622956858050601</v>
       </c>
       <c r="Q46" s="6">
-        <f t="shared" ref="Q46:V46" si="41">Q28/Q27</f>
+        <f t="shared" ref="Q46:V46" si="40">Q28/Q27</f>
         <v>-1.466619734835151E-3</v>
       </c>
       <c r="R46" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>-0.51155914368124322</v>
       </c>
       <c r="S46" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>-9.3161246006245355E-2</v>
       </c>
       <c r="T46" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>0.24822131416769186</v>
       </c>
       <c r="U46" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>9.5525133748425139E-2</v>
       </c>
       <c r="V46" s="6">
-        <f t="shared" si="41"/>
+        <f t="shared" si="40"/>
         <v>-4.3363332363260967E-2</v>
       </c>
     </row>
@@ -4949,9 +5027,13 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
+      <c r="J48" s="4">
+        <v>180.48500000000001</v>
+      </c>
       <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
+      <c r="L48" s="4">
+        <v>200.61099999999999</v>
+      </c>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
@@ -4988,9 +5070,13 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
+      <c r="J49" s="4">
+        <v>0</v>
+      </c>
       <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
+      <c r="L49" s="4">
+        <v>0</v>
+      </c>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
@@ -5027,9 +5113,13 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
+      <c r="J50" s="4">
+        <v>257.65699999999998</v>
+      </c>
       <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
+      <c r="L50" s="4">
+        <v>417.42599999999999</v>
+      </c>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
@@ -5066,9 +5156,13 @@
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
+      <c r="J51" s="4">
+        <v>356.25400000000002</v>
+      </c>
       <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
+      <c r="L51" s="4">
+        <v>405.13600000000002</v>
+      </c>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
@@ -5105,9 +5199,13 @@
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
+      <c r="J52" s="4">
+        <v>4.0460000000000003</v>
+      </c>
       <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
+      <c r="L52" s="4">
+        <v>6.5</v>
+      </c>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
@@ -5144,9 +5242,13 @@
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
+      <c r="J53" s="4">
+        <v>22.204000000000001</v>
+      </c>
       <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
+      <c r="L53" s="4">
+        <v>22.192</v>
+      </c>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
@@ -5183,9 +5285,13 @@
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
+      <c r="J54" s="4">
+        <v>51.622999999999998</v>
+      </c>
       <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
+      <c r="L54" s="4">
+        <v>49.942</v>
+      </c>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
@@ -5215,41 +5321,74 @@
       <c r="B55" t="s">
         <v>69</v>
       </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
+      <c r="C55" s="4">
+        <f t="shared" ref="C55:M55" si="41">+SUM(C48:C54)</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="4">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="4">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="4">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="4">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="4">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="4">
+        <f t="shared" ref="J55" si="42">+SUM(J48:J54)</f>
+        <v>872.26900000000001</v>
+      </c>
+      <c r="K55" s="4">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="4">
+        <f t="shared" si="41"/>
+        <v>1101.807</v>
+      </c>
+      <c r="M55" s="4">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
       <c r="N55" s="4"/>
       <c r="O55" s="4"/>
       <c r="P55" s="4">
-        <f t="shared" ref="P55:R55" si="42">+SUM(P48:P54)</f>
+        <f t="shared" ref="P55:R55" si="43">+SUM(P48:P54)</f>
         <v>380.298</v>
       </c>
       <c r="Q55" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>425.38200000000006</v>
       </c>
       <c r="R55" s="4">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>492.84100000000001</v>
       </c>
       <c r="S55" s="4">
-        <f t="shared" ref="S55:U55" si="43">+SUM(S48:S54)</f>
+        <f t="shared" ref="S55:U55" si="44">+SUM(S48:S54)</f>
         <v>666.56899999999996</v>
       </c>
       <c r="T55" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>1025.9749999999999</v>
       </c>
       <c r="U55" s="4">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>910.70400000000006</v>
       </c>
       <c r="V55" s="4">
@@ -5268,9 +5407,13 @@
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
+      <c r="J56" s="4">
+        <v>244.33500000000001</v>
+      </c>
       <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
+      <c r="L56" s="4">
+        <v>249.14500000000001</v>
+      </c>
       <c r="M56" s="4"/>
       <c r="N56" s="4"/>
       <c r="O56" s="4"/>
@@ -5307,9 +5450,13 @@
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
+      <c r="J57" s="4">
+        <v>1777.08</v>
+      </c>
       <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
+      <c r="L57" s="4">
+        <v>1335.462</v>
+      </c>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
@@ -5346,9 +5493,13 @@
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
+      <c r="J58" s="4">
+        <v>711.49099999999999</v>
+      </c>
       <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
+      <c r="L58" s="4">
+        <v>404.69499999999999</v>
+      </c>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
@@ -5385,9 +5536,13 @@
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
+      <c r="J59" s="4">
+        <v>872.35</v>
+      </c>
       <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
+      <c r="L59" s="4">
+        <v>971.97400000000005</v>
+      </c>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
@@ -5424,9 +5579,13 @@
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
+      <c r="J60" s="4">
+        <v>3.1930000000000001</v>
+      </c>
       <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
+      <c r="L60" s="4">
+        <v>3.57</v>
+      </c>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
@@ -5463,9 +5622,13 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
+      <c r="J61" s="4">
+        <v>307.22800000000001</v>
+      </c>
       <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
+      <c r="L61" s="4">
+        <v>349.26799999999997</v>
+      </c>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
@@ -5502,9 +5665,13 @@
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
+      <c r="J62" s="4">
+        <v>24.207000000000001</v>
+      </c>
       <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
+      <c r="L62" s="4">
+        <v>34.645000000000003</v>
+      </c>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
@@ -5537,34 +5704,58 @@
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
+      <c r="F63" s="4">
+        <f t="shared" ref="F63:M63" si="45">+SUM(F56:F62)</f>
+        <v>0</v>
+      </c>
+      <c r="G63" s="4">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="4">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="4">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="4">
+        <f t="shared" ref="J63" si="46">+SUM(J56:J62)</f>
+        <v>3939.884</v>
+      </c>
+      <c r="K63" s="4">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="L63" s="4">
+        <f t="shared" si="45"/>
+        <v>3348.759</v>
+      </c>
+      <c r="M63" s="4">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
       <c r="P63" s="4">
-        <f t="shared" ref="P63:R63" si="44">+SUM(P56:P62)</f>
+        <f t="shared" ref="P63:R63" si="47">+SUM(P56:P62)</f>
         <v>88.602999999999994</v>
       </c>
       <c r="Q63" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>313.42</v>
       </c>
       <c r="R63" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>625.88199999999995</v>
       </c>
       <c r="S63" s="4">
-        <f t="shared" ref="S63:T63" si="45">+SUM(S56:S62)</f>
+        <f t="shared" ref="S63:T63" si="48">+SUM(S56:S62)</f>
         <v>878.49900000000002</v>
       </c>
       <c r="T63" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>3475.8219999999997</v>
       </c>
       <c r="U63" s="4">
@@ -5580,41 +5771,74 @@
       <c r="B64" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
+      <c r="C64" s="5">
+        <f t="shared" ref="C64:M64" si="49">+C63+C55</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="5">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="E64" s="5">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="5">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="5">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="5">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="5">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="5">
+        <f t="shared" ref="J64" si="50">+J63+J55</f>
+        <v>4812.1530000000002</v>
+      </c>
+      <c r="K64" s="5">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+      <c r="L64" s="5">
+        <f t="shared" si="49"/>
+        <v>4450.5659999999998</v>
+      </c>
+      <c r="M64" s="5">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
       <c r="P64" s="5">
-        <f t="shared" ref="P64:R64" si="46">+P63+P55</f>
+        <f t="shared" ref="P64:R64" si="51">+P63+P55</f>
         <v>468.90100000000001</v>
       </c>
       <c r="Q64" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>738.80200000000013</v>
       </c>
       <c r="R64" s="5">
-        <f t="shared" si="46"/>
+        <f t="shared" si="51"/>
         <v>1118.723</v>
       </c>
       <c r="S64" s="5">
-        <f t="shared" ref="S64:U64" si="47">+S63+S55</f>
+        <f t="shared" ref="S64:U64" si="52">+S63+S55</f>
         <v>1545.068</v>
       </c>
       <c r="T64" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>4501.7969999999996</v>
       </c>
       <c r="U64" s="5">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>4643.8339999999998</v>
       </c>
       <c r="V64" s="5">
@@ -5654,9 +5878,13 @@
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
+      <c r="J66" s="4">
+        <v>264.90100000000001</v>
+      </c>
       <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
+      <c r="L66" s="4">
+        <v>263.339</v>
+      </c>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
@@ -5693,9 +5921,13 @@
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
+      <c r="J67" s="4">
+        <v>298.06799999999998</v>
+      </c>
       <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
+      <c r="L67" s="4">
+        <v>272.57100000000003</v>
+      </c>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
@@ -5732,9 +5964,13 @@
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
+      <c r="J68" s="4">
+        <v>108.688</v>
+      </c>
       <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
+      <c r="L68" s="4">
+        <v>96.021000000000001</v>
+      </c>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
@@ -5771,9 +6007,13 @@
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
+      <c r="J69" s="4">
+        <v>0</v>
+      </c>
       <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
+      <c r="L69" s="4">
+        <v>0</v>
+      </c>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
@@ -5810,9 +6050,13 @@
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
+      <c r="J70" s="4">
+        <v>68.551000000000002</v>
+      </c>
       <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
+      <c r="L70" s="4">
+        <v>82.918000000000006</v>
+      </c>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
@@ -5842,41 +6086,74 @@
       <c r="B71" t="s">
         <v>78</v>
       </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
+      <c r="C71" s="4">
+        <f t="shared" ref="C71:M71" si="53">+SUM(C66:C70)</f>
+        <v>0</v>
+      </c>
+      <c r="D71" s="4">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="4">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="F71" s="4">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="4">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="4">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="4">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="4">
+        <f t="shared" ref="J71" si="54">+SUM(J66:J70)</f>
+        <v>740.20800000000008</v>
+      </c>
+      <c r="K71" s="4">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="L71" s="4">
+        <f t="shared" si="53"/>
+        <v>714.84900000000005</v>
+      </c>
+      <c r="M71" s="4">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
       <c r="P71" s="4">
-        <f t="shared" ref="P71:S71" si="48">+SUM(P66:P70)</f>
+        <f t="shared" ref="P71:S71" si="55">+SUM(P66:P70)</f>
         <v>184.49099999999999</v>
       </c>
       <c r="Q71" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>257.22300000000001</v>
       </c>
       <c r="R71" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>291.584</v>
       </c>
       <c r="S71" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="55"/>
         <v>388.24300000000005</v>
       </c>
       <c r="T71" s="4">
-        <f t="shared" ref="T71:U71" si="49">+SUM(T66:T70)</f>
+        <f t="shared" ref="T71:U71" si="56">+SUM(T66:T70)</f>
         <v>641.274</v>
       </c>
       <c r="U71" s="4">
-        <f t="shared" si="49"/>
+        <f t="shared" si="56"/>
         <v>698.29600000000005</v>
       </c>
       <c r="V71" s="4">
@@ -5895,9 +6172,13 @@
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
+      <c r="J72" s="4">
+        <v>4.0860000000000003</v>
+      </c>
       <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
+      <c r="L72" s="4">
+        <v>1.139</v>
+      </c>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
@@ -5934,9 +6215,13 @@
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
-      <c r="J73" s="4"/>
+      <c r="J73" s="4">
+        <v>595.43399999999997</v>
+      </c>
       <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
+      <c r="L73" s="4">
+        <v>618.08199999999999</v>
+      </c>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
@@ -5973,9 +6258,13 @@
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
+      <c r="J74" s="4">
+        <v>1349.3389999999999</v>
+      </c>
       <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
+      <c r="L74" s="4">
+        <v>1379.1120000000001</v>
+      </c>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
@@ -6012,9 +6301,13 @@
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
+      <c r="J75" s="4">
+        <v>283.40600000000001</v>
+      </c>
       <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
+      <c r="L75" s="4">
+        <v>311.54899999999998</v>
+      </c>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
@@ -6051,9 +6344,13 @@
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
+      <c r="J76" s="4">
+        <v>3.948</v>
+      </c>
       <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
+      <c r="L76" s="4">
+        <v>4.6980000000000004</v>
+      </c>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
@@ -6085,39 +6382,66 @@
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
+      <c r="E77" s="4">
+        <f t="shared" ref="E77:M77" si="57">+SUM(E72:E76)</f>
+        <v>0</v>
+      </c>
+      <c r="F77" s="4">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="4">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="4">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="4">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="4">
+        <f t="shared" si="57"/>
+        <v>2236.2129999999997</v>
+      </c>
+      <c r="K77" s="4">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="L77" s="4">
+        <f t="shared" si="57"/>
+        <v>2314.58</v>
+      </c>
+      <c r="M77" s="4">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
       <c r="P77" s="4">
-        <f t="shared" ref="P77:R77" si="50">+SUM(P72:P76)</f>
+        <f t="shared" ref="P77:R77" si="58">+SUM(P72:P76)</f>
         <v>134.102</v>
       </c>
       <c r="Q77" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>349.70400000000001</v>
       </c>
       <c r="R77" s="4">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>536.50599999999997</v>
       </c>
       <c r="S77" s="4">
-        <f t="shared" ref="S77:U77" si="51">+SUM(S72:S76)</f>
+        <f t="shared" ref="S77:U77" si="59">+SUM(S72:S76)</f>
         <v>1142.7430000000002</v>
       </c>
       <c r="T77" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>3042.5920000000006</v>
       </c>
       <c r="U77" s="4">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>2491.6149999999998</v>
       </c>
       <c r="V77" s="4">
@@ -6129,41 +6453,74 @@
       <c r="B78" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
+      <c r="C78" s="5">
+        <f t="shared" ref="C78:M78" si="60">+C77+C71</f>
+        <v>0</v>
+      </c>
+      <c r="D78" s="5">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="E78" s="5">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="F78" s="5">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="5">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="H78" s="5">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="I78" s="5">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="5">
+        <f t="shared" si="60"/>
+        <v>2976.4209999999998</v>
+      </c>
+      <c r="K78" s="5">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="L78" s="5">
+        <f t="shared" si="60"/>
+        <v>3029.4290000000001</v>
+      </c>
+      <c r="M78" s="5">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
       <c r="P78" s="5">
-        <f t="shared" ref="P78:R78" si="52">+P77+P71</f>
+        <f t="shared" ref="P78:R78" si="61">+P77+P71</f>
         <v>318.59299999999996</v>
       </c>
       <c r="Q78" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="61"/>
         <v>606.92700000000002</v>
       </c>
       <c r="R78" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="61"/>
         <v>828.08999999999992</v>
       </c>
       <c r="S78" s="5">
-        <f t="shared" ref="S78:U78" si="53">+S77+S71</f>
+        <f t="shared" ref="S78:U78" si="62">+S77+S71</f>
         <v>1530.9860000000003</v>
       </c>
       <c r="T78" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>3683.8660000000004</v>
       </c>
       <c r="U78" s="5">
-        <f t="shared" si="53"/>
+        <f t="shared" si="62"/>
         <v>3189.9110000000001</v>
       </c>
       <c r="V78" s="5">
@@ -6182,9 +6539,13 @@
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
+      <c r="J79" s="4">
+        <v>1835.732</v>
+      </c>
       <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
+      <c r="L79" s="4">
+        <v>1421.1369999999999</v>
+      </c>
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
@@ -6214,41 +6575,74 @@
       <c r="B80" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
+      <c r="C80" s="5">
+        <f t="shared" ref="C80:M80" si="63">+C78+C79</f>
+        <v>0</v>
+      </c>
+      <c r="D80" s="5">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="5">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="F80" s="5">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="5">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="H80" s="5">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="I80" s="5">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="5">
+        <f t="shared" si="63"/>
+        <v>4812.1530000000002</v>
+      </c>
+      <c r="K80" s="5">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="L80" s="5">
+        <f t="shared" si="63"/>
+        <v>4450.5659999999998</v>
+      </c>
+      <c r="M80" s="5">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
       <c r="P80" s="5">
-        <f t="shared" ref="P80:R80" si="54">+P78+P79</f>
+        <f t="shared" ref="P80:R80" si="64">+P78+P79</f>
         <v>468.90099999999995</v>
       </c>
       <c r="Q80" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="64"/>
         <v>738.83199999999999</v>
       </c>
       <c r="R80" s="5">
-        <f t="shared" si="54"/>
+        <f t="shared" si="64"/>
         <v>1118.723</v>
       </c>
       <c r="S80" s="5">
-        <f t="shared" ref="S80:U80" si="55">+S78+S79</f>
+        <f t="shared" ref="S80:U80" si="65">+S78+S79</f>
         <v>1545.0680000000004</v>
       </c>
       <c r="T80" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="65"/>
         <v>4501.7970000000005</v>
       </c>
       <c r="U80" s="5">
-        <f t="shared" si="55"/>
+        <f t="shared" si="65"/>
         <v>4643.8339999999998</v>
       </c>
       <c r="V80" s="5">
@@ -6299,23 +6693,23 @@
         <v>50.436999999999998</v>
       </c>
       <c r="Q82" s="4">
-        <f t="shared" ref="Q82:R82" si="56">+Q29</f>
+        <f t="shared" ref="Q82:R82" si="66">+Q29</f>
         <v>119.49700000000007</v>
       </c>
       <c r="R82" s="4">
-        <f t="shared" si="56"/>
+        <f t="shared" si="66"/>
         <v>312.86099999999993</v>
       </c>
       <c r="S82" s="4">
-        <f t="shared" ref="S82:U82" si="57">+S29</f>
+        <f t="shared" ref="S82:U82" si="67">+S29</f>
         <v>725.6940000000003</v>
       </c>
       <c r="T82" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="67"/>
         <v>540.15900000000011</v>
       </c>
       <c r="U82" s="4">
-        <f t="shared" si="57"/>
+        <f t="shared" si="67"/>
         <v>792.56600000000003</v>
       </c>
       <c r="V82" s="4">
@@ -6968,27 +7362,27 @@
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
       <c r="P99" s="4">
-        <f t="shared" ref="P99:U99" si="58">+SUM(P92:P98)</f>
+        <f t="shared" ref="P99:U99" si="68">+SUM(P92:P98)</f>
         <v>11.96</v>
       </c>
       <c r="Q99" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>-111.297</v>
       </c>
       <c r="R99" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>132.38800000000001</v>
       </c>
       <c r="S99" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>-44.52600000000001</v>
       </c>
       <c r="T99" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>-91.682000000000002</v>
       </c>
       <c r="U99" s="4">
-        <f t="shared" si="58"/>
+        <f t="shared" si="68"/>
         <v>366.52499999999998</v>
       </c>
       <c r="V99" s="4">
@@ -7014,27 +7408,27 @@
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
       <c r="P100" s="5">
-        <f t="shared" ref="P100:U100" si="59">+P82+SUM(P83:P91)+P99</f>
+        <f t="shared" ref="P100:U100" si="69">+P82+SUM(P83:P91)+P99</f>
         <v>114.16200000000001</v>
       </c>
       <c r="Q100" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="69"/>
         <v>89.958000000000084</v>
       </c>
       <c r="R100" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="69"/>
         <v>266.90199999999993</v>
       </c>
       <c r="S100" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="69"/>
         <v>567.16500000000019</v>
       </c>
       <c r="T100" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="69"/>
         <v>603.14200000000005</v>
       </c>
       <c r="U100" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="69"/>
         <v>930.44400000000007</v>
       </c>
       <c r="V100" s="5">
@@ -7180,27 +7574,27 @@
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
       <c r="P104" s="5">
-        <f t="shared" ref="P104:U104" si="60">+SUM(P101:P103)</f>
+        <f t="shared" ref="P104:U104" si="70">+SUM(P101:P103)</f>
         <v>-10.11</v>
       </c>
       <c r="Q104" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>-36.236000000000004</v>
       </c>
       <c r="R104" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>-41.789000000000001</v>
       </c>
       <c r="S104" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>-55.924999999999997</v>
       </c>
       <c r="T104" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>-2151.0909999999999</v>
       </c>
       <c r="U104" s="5">
-        <f t="shared" si="60"/>
+        <f t="shared" si="70"/>
         <v>-115.67100000000001</v>
       </c>
       <c r="V104" s="5">
@@ -7463,27 +7857,27 @@
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
       <c r="P111" s="5">
-        <f t="shared" ref="P111:U111" si="61">+SUM(P105:P110)</f>
+        <f t="shared" ref="P111:U111" si="71">+SUM(P105:P110)</f>
         <v>-148.80200000000002</v>
       </c>
       <c r="Q111" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>-68.638000000000005</v>
       </c>
       <c r="R111" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>-198.03799999999998</v>
       </c>
       <c r="S111" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>-429.63800000000003</v>
       </c>
       <c r="T111" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>1529.6590000000001</v>
       </c>
       <c r="U111" s="5">
-        <f t="shared" si="61"/>
+        <f t="shared" si="71"/>
         <v>-859.63900000000001</v>
       </c>
       <c r="V111" s="5">
@@ -7548,27 +7942,27 @@
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
       <c r="P113" s="4">
-        <f t="shared" ref="P113:S113" si="62">+P111+P112+P104+P100</f>
+        <f t="shared" ref="P113:S113" si="72">+P111+P112+P104+P100</f>
         <v>-49.525000000000006</v>
       </c>
       <c r="Q113" s="4">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>-15.484999999999928</v>
       </c>
       <c r="R113" s="4">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>27.200999999999965</v>
       </c>
       <c r="S113" s="4">
-        <f t="shared" si="62"/>
+        <f t="shared" si="72"/>
         <v>77.652000000000157</v>
       </c>
       <c r="T113" s="4">
-        <f t="shared" ref="T113:U113" si="63">+T111+T112+T104+T100</f>
+        <f t="shared" ref="T113:U113" si="73">+T111+T112+T104+T100</f>
         <v>-22.039999999999736</v>
       </c>
       <c r="U113" s="4">
-        <f t="shared" si="63"/>
+        <f t="shared" si="73"/>
         <v>-41.788000000000011</v>
       </c>
       <c r="V113" s="4">
@@ -7594,27 +7988,27 @@
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
       <c r="P114" s="4">
-        <f t="shared" ref="P114:U114" si="64">+P115-P113</f>
+        <f t="shared" ref="P114:U114" si="74">+P115-P113</f>
         <v>177.08199999999957</v>
       </c>
       <c r="Q114" s="4">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>127.55699999999956</v>
       </c>
       <c r="R114" s="4">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>112.07199999999963</v>
       </c>
       <c r="S114" s="4">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>139.2729999999996</v>
       </c>
       <c r="T114" s="4">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>216.92499999999976</v>
       </c>
       <c r="U114" s="4">
-        <f t="shared" si="64"/>
+        <f t="shared" si="74"/>
         <v>194.88500000000002</v>
       </c>
       <c r="V114" s="4">
@@ -7639,27 +8033,27 @@
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
       <c r="P115" s="4">
-        <f t="shared" ref="P115:U115" si="65">+Q114</f>
+        <f t="shared" ref="P115:U115" si="75">+Q114</f>
         <v>127.55699999999956</v>
       </c>
       <c r="Q115" s="4">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>112.07199999999963</v>
       </c>
       <c r="R115" s="4">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>139.2729999999996</v>
       </c>
       <c r="S115" s="4">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>216.92499999999976</v>
       </c>
       <c r="T115" s="4">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>194.88500000000002</v>
       </c>
       <c r="U115" s="4">
-        <f t="shared" si="65"/>
+        <f t="shared" si="75"/>
         <v>153.09700000000001</v>
       </c>
       <c r="V115" s="4">
@@ -12730,14 +13124,14 @@
       </c>
       <c r="J3" s="44">
         <f>+Main!H2</f>
-        <v>111.22</v>
+        <v>55.783000000000001</v>
       </c>
       <c r="L3" t="s">
         <v>257</v>
       </c>
       <c r="O3" s="44">
         <f>+J3</f>
-        <v>111.22</v>
+        <v>55.783000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -12746,14 +13140,14 @@
       </c>
       <c r="E4" s="84">
         <f ca="1">+TODAY()</f>
-        <v>45785</v>
+        <v>45876</v>
       </c>
       <c r="G4" t="s">
         <v>259</v>
       </c>
       <c r="J4" s="45">
         <f ca="1">V62</f>
-        <v>159.25422095733981</v>
+        <v>162.60848012144373</v>
       </c>
       <c r="L4" t="s">
         <v>260</v>
@@ -12775,7 +13169,7 @@
       </c>
       <c r="J5" s="48">
         <f ca="1">J4/J3-1</f>
-        <v>0.43188474156932033</v>
+        <v>1.9150185562168356</v>
       </c>
       <c r="L5" t="s">
         <v>262</v>
@@ -14352,43 +14746,43 @@
       <c r="L52" s="71"/>
       <c r="M52" s="71">
         <f ca="1">(M51/(1+$E$18)^M53)*M53</f>
-        <v>425.29637960447957</v>
+        <v>268.50409822373302</v>
       </c>
       <c r="N52" s="71">
         <f ca="1">N51/(1+$E$18)^N53</f>
-        <v>625.83868749906469</v>
+        <v>639.31525643069688</v>
       </c>
       <c r="O52" s="71">
         <f t="shared" ref="O52:U52" ca="1" si="21">O51/(1+$E$18)^O53</f>
-        <v>595.42320436286809</v>
+        <v>608.24481801087632</v>
       </c>
       <c r="P52" s="71">
         <f t="shared" ca="1" si="21"/>
-        <v>565.90845475581739</v>
+        <v>578.09450916863534</v>
       </c>
       <c r="Q52" s="71">
         <f t="shared" ca="1" si="21"/>
-        <v>537.32973851283157</v>
+        <v>548.90038987192463</v>
       </c>
       <c r="R52" s="71">
         <f t="shared" ca="1" si="21"/>
-        <v>509.71378168464906</v>
+        <v>520.68976167995152</v>
       </c>
       <c r="S52" s="71">
         <f t="shared" ca="1" si="21"/>
-        <v>483.07947397752434</v>
+        <v>493.48192106261996</v>
       </c>
       <c r="T52" s="71">
         <f t="shared" ca="1" si="21"/>
-        <v>457.43859111349155</v>
+        <v>467.2888973158208</v>
       </c>
       <c r="U52" s="71">
         <f t="shared" ca="1" si="21"/>
-        <v>432.79649550489938</v>
+        <v>442.1161683240224</v>
       </c>
       <c r="V52" s="72">
         <f ca="1">V51/(1+$E$18)^V53</f>
-        <v>409.15280995971904</v>
+        <v>417.96334877288797</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.25">
@@ -14397,43 +14791,43 @@
       </c>
       <c r="M53" s="85">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.64722222222222225</v>
+        <v>0.4</v>
       </c>
       <c r="N53" s="85">
         <f ca="1">M53+1</f>
-        <v>1.6472222222222221</v>
+        <v>1.4</v>
       </c>
       <c r="O53" s="85">
         <f ca="1">N53+1</f>
-        <v>2.6472222222222221</v>
+        <v>2.4</v>
       </c>
       <c r="P53" s="85">
         <f t="shared" ref="P53:V53" ca="1" si="22">O53+1</f>
-        <v>3.6472222222222221</v>
+        <v>3.4</v>
       </c>
       <c r="Q53" s="85">
         <f t="shared" ca="1" si="22"/>
-        <v>4.6472222222222221</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="R53" s="85">
         <f t="shared" ca="1" si="22"/>
-        <v>5.6472222222222221</v>
+        <v>5.4</v>
       </c>
       <c r="S53" s="85">
         <f t="shared" ca="1" si="22"/>
-        <v>6.6472222222222221</v>
+        <v>6.4</v>
       </c>
       <c r="T53" s="85">
         <f t="shared" ca="1" si="22"/>
-        <v>7.6472222222222221</v>
+        <v>7.4</v>
       </c>
       <c r="U53" s="85">
         <f t="shared" ca="1" si="22"/>
-        <v>8.6472222222222221</v>
+        <v>8.4</v>
       </c>
       <c r="V53" s="85">
         <f t="shared" ca="1" si="22"/>
-        <v>9.6472222222222221</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.25">
@@ -14446,7 +14840,7 @@
       <c r="Q54" s="36"/>
       <c r="V54" s="29">
         <f ca="1">SUM(M52:V52)</f>
-        <v>5041.9776169753441</v>
+        <v>4984.5991688611693</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
@@ -14490,7 +14884,7 @@
       <c r="U56" s="73"/>
       <c r="V56" s="74">
         <f ca="1">V55/(1+E18)^V53</f>
-        <v>5205.7647209409924</v>
+        <v>5317.8636507530382</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.25">
@@ -14518,7 +14912,7 @@
       <c r="U57" s="75"/>
       <c r="V57" s="76">
         <f ca="1">V54+V56</f>
-        <v>10247.742337916337</v>
+        <v>10302.462819614208</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.25">
@@ -14531,7 +14925,7 @@
       <c r="Q58" s="36"/>
       <c r="V58" s="77">
         <f>+Main!H5</f>
-        <v>169.73699999999999</v>
+        <v>200.61099999999999</v>
       </c>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.25">
@@ -14559,7 +14953,7 @@
       <c r="U59" s="73"/>
       <c r="V59" s="74">
         <f>+Main!H6</f>
-        <v>1481.7249999999999</v>
+        <v>1379.1120000000001</v>
       </c>
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.25">
@@ -14572,7 +14966,7 @@
       <c r="Q60" s="36"/>
       <c r="V60" s="77">
         <f ca="1">V57+V58-V59</f>
-        <v>8935.7543379163362</v>
+        <v>9123.9618196142073</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.25">
@@ -14609,7 +15003,7 @@
       </c>
       <c r="V62" s="77">
         <f ca="1">V60/V61</f>
-        <v>159.25422095733981</v>
+        <v>162.60848012144373</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
@@ -14670,7 +15064,7 @@
       </c>
       <c r="C69" s="79">
         <f ca="1">+J4</f>
-        <v>159.25422095733981</v>
+        <v>162.60848012144373</v>
       </c>
       <c r="D69" s="80">
         <v>0.01</v>
@@ -14698,7 +15092,7 @@
       </c>
       <c r="N69" s="79">
         <f ca="1">+J4</f>
-        <v>159.25422095733981</v>
+        <v>162.60848012144373</v>
       </c>
       <c r="O69" s="80">
         <v>7.0000000000000007E-2</v>
@@ -14729,25 +15123,25 @@
       </c>
       <c r="D70" s="82">
         <f t="dataTable" ref="D70:J76" dt2D="1" dtr="1" r1="E19" r2="E18" ca="1"/>
-        <v>340.8328194704286</v>
+        <v>344.62945933209699</v>
       </c>
       <c r="E70" s="82">
-        <v>362.4922530281446</v>
+        <v>366.55173124789758</v>
       </c>
       <c r="F70" s="82">
-        <v>391.18397020849591</v>
+        <v>395.59162391558175</v>
       </c>
       <c r="G70" s="83">
-        <v>431.12734118506313</v>
+        <v>436.01970978627907</v>
       </c>
       <c r="H70" s="82">
-        <v>490.76110630500881</v>
+        <v>496.37713376224985</v>
       </c>
       <c r="I70" s="82">
-        <v>589.77565971171089</v>
+        <v>596.59323394876719</v>
       </c>
       <c r="J70" s="82">
-        <v>787.24218383530444</v>
+        <v>796.45602466165155</v>
       </c>
       <c r="M70" s="90"/>
       <c r="N70" s="81">
@@ -14755,25 +15149,25 @@
       </c>
       <c r="O70" s="82">
         <f t="dataTable" ref="O70:U76" dt2D="1" dtr="1" r1="E20" r2="E18" ca="1"/>
-        <v>381.7004334373994</v>
+        <v>385.99300393018473</v>
       </c>
       <c r="P70" s="82">
-        <v>402.2949783322594</v>
+        <v>406.83746470355743</v>
       </c>
       <c r="Q70" s="82">
-        <v>418.31295769492812</v>
+        <v>423.04982308284724</v>
       </c>
       <c r="R70" s="83">
-        <v>431.12734118506313</v>
+        <v>436.01970978627907</v>
       </c>
       <c r="S70" s="82">
-        <v>441.61183676790097</v>
+        <v>446.63143527090517</v>
       </c>
       <c r="T70" s="82">
-        <v>450.34891642026571</v>
+        <v>455.4745398414268</v>
       </c>
       <c r="U70" s="82">
-        <v>457.74182997226677</v>
+        <v>462.95716678571449</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
@@ -14782,50 +15176,50 @@
         <v>0.06</v>
       </c>
       <c r="D71" s="82">
-        <v>266.64300201469791</v>
+        <v>270.23939253136399</v>
       </c>
       <c r="E71" s="82">
-        <v>276.83154029225915</v>
+        <v>280.5757626918811</v>
       </c>
       <c r="F71" s="82">
-        <v>289.4388580937208</v>
+        <v>293.36600796329378</v>
       </c>
       <c r="G71" s="83">
-        <v>305.50157521503996</v>
+        <v>309.66178910741411</v>
       </c>
       <c r="H71" s="82">
-        <v>326.74739131614558</v>
+        <v>331.21587406059621</v>
       </c>
       <c r="I71" s="82">
-        <v>356.28616578490949</v>
+        <v>361.18324510827682</v>
       </c>
       <c r="J71" s="82">
-        <v>400.33761739707541</v>
+        <v>405.87386682133041</v>
       </c>
       <c r="M71" s="90"/>
       <c r="N71" s="81">
         <v>0.06</v>
       </c>
       <c r="O71" s="82">
-        <v>273.2818393063273</v>
+        <v>276.97455687116479</v>
       </c>
       <c r="P71" s="82">
-        <v>286.70672926829087</v>
+        <v>290.59423696960209</v>
       </c>
       <c r="Q71" s="82">
-        <v>297.14831034981825</v>
+        <v>301.18732149060872</v>
       </c>
       <c r="R71" s="83">
-        <v>305.50157521503996</v>
+        <v>309.66178910741411</v>
       </c>
       <c r="S71" s="82">
-        <v>312.33606465022143</v>
+        <v>316.59544443025487</v>
       </c>
       <c r="T71" s="82">
-        <v>318.03147251287265</v>
+        <v>322.37349053262216</v>
       </c>
       <c r="U71" s="82">
-        <v>322.85066378126993</v>
+        <v>327.26260646539453</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
@@ -14834,50 +15228,50 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D72" s="83">
-        <v>217.24126513882291</v>
+        <v>220.69940227446259</v>
       </c>
       <c r="E72" s="83">
-        <v>222.2718876643649</v>
+        <v>225.81487830368624</v>
       </c>
       <c r="F72" s="83">
-        <v>228.21484342758995</v>
+        <v>231.85807625685388</v>
       </c>
       <c r="G72" s="83">
-        <v>235.37424350772571</v>
+        <v>239.13823677528001</v>
       </c>
       <c r="H72" s="83">
-        <v>244.20625452361369</v>
+        <v>248.11922082093679</v>
       </c>
       <c r="I72" s="83">
-        <v>255.42770973343337</v>
+        <v>259.52995276263721</v>
       </c>
       <c r="J72" s="83">
-        <v>270.23333123415091</v>
+        <v>274.5853065484032</v>
       </c>
       <c r="M72" s="90"/>
       <c r="N72" s="81">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O72" s="83">
-        <v>212.48470800510827</v>
+        <v>215.86261440663733</v>
       </c>
       <c r="P72" s="83">
-        <v>222.02201446453222</v>
+        <v>225.56079039357181</v>
       </c>
       <c r="Q72" s="83">
-        <v>229.43991948852857</v>
+        <v>233.1038161611875</v>
       </c>
       <c r="R72" s="83">
-        <v>235.37424350772571</v>
+        <v>239.13823677528001</v>
       </c>
       <c r="S72" s="83">
-        <v>240.2295995234324</v>
+        <v>244.0754900049921</v>
       </c>
       <c r="T72" s="83">
-        <v>244.27572953652134</v>
+        <v>248.18986769641884</v>
       </c>
       <c r="U72" s="83">
-        <v>247.69937800913505</v>
+        <v>251.67126420454915</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
@@ -14886,50 +15280,50 @@
         <v>0.09</v>
       </c>
       <c r="D73" s="82">
-        <v>155.61099349876977</v>
+        <v>158.88680080785136</v>
       </c>
       <c r="E73" s="82">
-        <v>156.71577896826295</v>
+        <v>160.01537630156596</v>
       </c>
       <c r="F73" s="82">
-        <v>157.92235785802228</v>
+        <v>161.2479371958004</v>
       </c>
       <c r="G73" s="83">
-        <v>159.25422095733981</v>
+        <v>162.60848012144373</v>
       </c>
       <c r="H73" s="82">
-        <v>160.74268931860516</v>
+        <v>164.12900058634833</v>
       </c>
       <c r="I73" s="82">
-        <v>162.43047346780403</v>
+        <v>165.85312882849433</v>
       </c>
       <c r="J73" s="82">
-        <v>164.37736814131662</v>
+        <v>167.84194718105445</v>
       </c>
       <c r="M73" s="90"/>
       <c r="N73" s="81">
         <v>0.09</v>
       </c>
       <c r="O73" s="82">
-        <v>146.00024351267498</v>
+        <v>149.06909663809975</v>
       </c>
       <c r="P73" s="82">
-        <v>151.52273411461866</v>
+        <v>154.7105064228264</v>
       </c>
       <c r="Q73" s="82">
-        <v>155.81800458279707</v>
+        <v>159.09826958872492</v>
       </c>
       <c r="R73" s="83">
-        <v>159.25422095733981</v>
+        <v>162.60848012144373</v>
       </c>
       <c r="S73" s="82">
-        <v>162.0656707183293</v>
+        <v>165.48047055730461</v>
       </c>
       <c r="T73" s="82">
-        <v>164.40854551915388</v>
+        <v>167.87379592052201</v>
       </c>
       <c r="U73" s="82">
-        <v>166.39097804292854</v>
+        <v>169.89891738170596</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
@@ -14938,50 +15332,50 @@
         <v>0.1</v>
       </c>
       <c r="D74" s="82">
-        <v>135.11802846620907</v>
+        <v>138.32930627488849</v>
       </c>
       <c r="E74" s="82">
-        <v>135.47718172380436</v>
+        <v>138.69702267648188</v>
       </c>
       <c r="F74" s="82">
-        <v>135.83633498139972</v>
+        <v>139.06473907807529</v>
       </c>
       <c r="G74" s="83">
-        <v>136.19548823899501</v>
+        <v>139.43245547966865</v>
       </c>
       <c r="H74" s="82">
-        <v>136.55464149659039</v>
+        <v>139.80017188126209</v>
       </c>
       <c r="I74" s="82">
-        <v>136.91379475418566</v>
+        <v>140.16788828285544</v>
       </c>
       <c r="J74" s="82">
-        <v>137.27294801178104</v>
+        <v>140.53560468444886</v>
       </c>
       <c r="M74" s="90"/>
       <c r="N74" s="81">
         <v>0.1</v>
       </c>
       <c r="O74" s="82">
-        <v>125.67742855227455</v>
+        <v>128.66361800443354</v>
       </c>
       <c r="P74" s="82">
-        <v>130.05995342174143</v>
+        <v>133.15063361911487</v>
       </c>
       <c r="Q74" s="82">
-        <v>133.4685838757712</v>
+        <v>136.64053465275589</v>
       </c>
       <c r="R74" s="83">
-        <v>136.19548823899501</v>
+        <v>139.43245547966865</v>
       </c>
       <c r="S74" s="82">
-        <v>138.42659180890544</v>
+        <v>141.71675433805186</v>
       </c>
       <c r="T74" s="82">
-        <v>140.28584478383075</v>
+        <v>143.6203367200379</v>
       </c>
       <c r="U74" s="82">
-        <v>141.8590588395368</v>
+        <v>145.23106027402602</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
@@ -14990,50 +15384,50 @@
         <v>0.11</v>
       </c>
       <c r="D75" s="82">
-        <v>118.75184300398506</v>
+        <v>121.90950285849041</v>
       </c>
       <c r="E75" s="82">
-        <v>118.69641110316665</v>
+        <v>121.85262219956134</v>
       </c>
       <c r="F75" s="82">
-        <v>118.59825044546739</v>
+        <v>121.75189603270782</v>
       </c>
       <c r="G75" s="83">
-        <v>118.4498206620259</v>
+        <v>121.59958691535492</v>
       </c>
       <c r="H75" s="82">
-        <v>118.24169629176561</v>
+        <v>121.38602304428396</v>
       </c>
       <c r="I75" s="82">
-        <v>117.96193841732268</v>
+        <v>121.0989534687514</v>
       </c>
       <c r="J75" s="82">
-        <v>117.59519700208661</v>
+        <v>120.72262696637259</v>
       </c>
       <c r="M75" s="90"/>
       <c r="N75" s="81">
         <v>0.11</v>
       </c>
       <c r="O75" s="82">
-        <v>109.94507064806663</v>
+        <v>112.87255829684167</v>
       </c>
       <c r="P75" s="82">
-        <v>113.48871648721635</v>
+        <v>116.50882022122218</v>
       </c>
       <c r="Q75" s="82">
-        <v>116.24488547322166</v>
+        <v>119.33702394018481</v>
       </c>
       <c r="R75" s="83">
-        <v>118.4498206620259</v>
+        <v>121.59958691535492</v>
       </c>
       <c r="S75" s="82">
-        <v>120.25385854377481</v>
+        <v>123.45077480413043</v>
       </c>
       <c r="T75" s="82">
-        <v>121.75722344523227</v>
+        <v>124.99343137811003</v>
       </c>
       <c r="U75" s="82">
-        <v>123.02930143877322</v>
+        <v>126.29875617147742</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
@@ -15042,50 +15436,50 @@
         <v>0.12</v>
       </c>
       <c r="D76" s="82">
-        <v>105.38562094103168</v>
+        <v>108.49775679795189</v>
       </c>
       <c r="E76" s="82">
-        <v>105.10206758360016</v>
+        <v>108.20614668381063</v>
       </c>
       <c r="F76" s="82">
-        <v>104.75997417818279</v>
+        <v>107.85433319126604</v>
       </c>
       <c r="G76" s="83">
-        <v>104.3500975593081</v>
+        <v>107.43281052372808</v>
       </c>
       <c r="H76" s="82">
-        <v>103.8611405247332</v>
+        <v>106.92996048536456</v>
       </c>
       <c r="I76" s="82">
-        <v>103.2791477069816</v>
+        <v>106.33143118720619</v>
       </c>
       <c r="J76" s="82">
-        <v>102.58667489670772</v>
+        <v>105.61928276804154</v>
       </c>
       <c r="M76" s="91"/>
       <c r="N76" s="81">
         <v>0.12</v>
       </c>
       <c r="O76" s="82">
-        <v>97.371301307704186</v>
+        <v>100.25572191531606</v>
       </c>
       <c r="P76" s="82">
-        <v>100.27913307920583</v>
+        <v>103.2461755021544</v>
       </c>
       <c r="Q76" s="82">
-        <v>102.54078001259596</v>
+        <v>105.57208384747312</v>
       </c>
       <c r="R76" s="83">
-        <v>104.3500975593081</v>
+        <v>107.43281052372808</v>
       </c>
       <c r="S76" s="82">
-        <v>105.83044827934526</v>
+        <v>108.95522325884578</v>
       </c>
       <c r="T76" s="82">
-        <v>107.06407387937627</v>
+        <v>110.22390053811051</v>
       </c>
       <c r="U76" s="82">
-        <v>108.10791092555633</v>
+        <v>111.2973966974884</v>
       </c>
     </row>
   </sheetData>

--- a/CROX.xlsx
+++ b/CROX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E5E9CF-4358-496D-804D-A1D860953248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E69DB5-B51C-41AE-A2DB-76B93FA329A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{CE56C274-430F-49C4-B695-C61D5C0F48E5}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{CE56C274-430F-49C4-B695-C61D5C0F48E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1488,7 +1488,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -1635,6 +1635,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2237,8 +2238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0752DB2D-B359-487B-8CEA-5CA0DA6B29B3}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2268,8 +2269,8 @@
       <c r="G3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="4">
-        <v>56.11</v>
+      <c r="H3" s="92">
+        <v>54.617358000000003</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>333</v>
@@ -2284,7 +2285,7 @@
       </c>
       <c r="H4" s="4">
         <f>H3*H2</f>
-        <v>3129.9841299999998</v>
+        <v>3046.7200813140003</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2330,7 +2331,7 @@
       </c>
       <c r="H7" s="4">
         <f>H4+H6-H5</f>
-        <v>4308.48513</v>
+        <v>4225.221081314</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2508,7 +2509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B9F4D1-17EF-4BB4-A228-DFF8F743CBAC}">
   <dimension ref="A1:AD296"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -13140,14 +13141,14 @@
       </c>
       <c r="E4" s="84">
         <f ca="1">+TODAY()</f>
-        <v>45876</v>
+        <v>45877</v>
       </c>
       <c r="G4" t="s">
         <v>259</v>
       </c>
       <c r="J4" s="45">
         <f ca="1">V62</f>
-        <v>162.60848012144373</v>
+        <v>167.0634322117904</v>
       </c>
       <c r="L4" t="s">
         <v>260</v>
@@ -13169,7 +13170,7 @@
       </c>
       <c r="J5" s="48">
         <f ca="1">J4/J3-1</f>
-        <v>1.9150185562168356</v>
+        <v>1.9948807380705662</v>
       </c>
       <c r="L5" t="s">
         <v>262</v>
@@ -14746,43 +14747,43 @@
       <c r="L52" s="71"/>
       <c r="M52" s="71">
         <f ca="1">(M51/(1+$E$18)^M53)*M53</f>
-        <v>268.50409822373302</v>
+        <v>266.70332289495002</v>
       </c>
       <c r="N52" s="71">
         <f ca="1">N51/(1+$E$18)^N53</f>
-        <v>639.31525643069688</v>
+        <v>639.4683156275089</v>
       </c>
       <c r="O52" s="71">
         <f t="shared" ref="O52:U52" ca="1" si="21">O51/(1+$E$18)^O53</f>
-        <v>608.24481801087632</v>
+        <v>608.39043859848687</v>
       </c>
       <c r="P52" s="71">
         <f t="shared" ca="1" si="21"/>
-        <v>578.09450916863534</v>
+        <v>578.23291143631911</v>
       </c>
       <c r="Q52" s="71">
         <f t="shared" ca="1" si="21"/>
-        <v>548.90038987192463</v>
+        <v>549.03180274211434</v>
       </c>
       <c r="R52" s="71">
         <f t="shared" ca="1" si="21"/>
-        <v>520.68976167995152</v>
+        <v>520.81442061137739</v>
       </c>
       <c r="S52" s="71">
         <f t="shared" ca="1" si="21"/>
-        <v>493.48192106261996</v>
+        <v>493.60006613380256</v>
       </c>
       <c r="T52" s="71">
         <f t="shared" ca="1" si="21"/>
-        <v>467.2888973158208</v>
+        <v>467.40077148522772</v>
       </c>
       <c r="U52" s="71">
         <f t="shared" ca="1" si="21"/>
-        <v>442.1161683240224</v>
+        <v>442.22201586158792</v>
       </c>
       <c r="V52" s="72">
         <f ca="1">V51/(1+$E$18)^V53</f>
-        <v>417.96334877288797</v>
+        <v>418.06341385629793</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.25">
@@ -14791,43 +14792,43 @@
       </c>
       <c r="M53" s="85">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.4</v>
+        <v>0.3972222222222222</v>
       </c>
       <c r="N53" s="85">
         <f ca="1">M53+1</f>
-        <v>1.4</v>
+        <v>1.3972222222222221</v>
       </c>
       <c r="O53" s="85">
         <f ca="1">N53+1</f>
-        <v>2.4</v>
+        <v>2.3972222222222221</v>
       </c>
       <c r="P53" s="85">
         <f t="shared" ref="P53:V53" ca="1" si="22">O53+1</f>
-        <v>3.4</v>
+        <v>3.3972222222222221</v>
       </c>
       <c r="Q53" s="85">
         <f t="shared" ca="1" si="22"/>
-        <v>4.4000000000000004</v>
+        <v>4.3972222222222221</v>
       </c>
       <c r="R53" s="85">
         <f t="shared" ca="1" si="22"/>
-        <v>5.4</v>
+        <v>5.3972222222222221</v>
       </c>
       <c r="S53" s="85">
         <f t="shared" ca="1" si="22"/>
-        <v>6.4</v>
+        <v>6.3972222222222221</v>
       </c>
       <c r="T53" s="85">
         <f t="shared" ca="1" si="22"/>
-        <v>7.4</v>
+        <v>7.3972222222222221</v>
       </c>
       <c r="U53" s="85">
         <f t="shared" ca="1" si="22"/>
-        <v>8.4</v>
+        <v>8.3972222222222221</v>
       </c>
       <c r="V53" s="85">
         <f t="shared" ca="1" si="22"/>
-        <v>9.4</v>
+        <v>9.3972222222222221</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.25">
@@ -14840,7 +14841,7 @@
       <c r="Q54" s="36"/>
       <c r="V54" s="29">
         <f ca="1">SUM(M52:V52)</f>
-        <v>4984.5991688611693</v>
+        <v>4983.9274792476735</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
@@ -14884,7 +14885,7 @@
       <c r="U56" s="73"/>
       <c r="V56" s="74">
         <f ca="1">V55/(1+E18)^V53</f>
-        <v>5317.8636507530382</v>
+        <v>5319.1368065724137</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.25">
@@ -14912,7 +14913,7 @@
       <c r="U57" s="75"/>
       <c r="V57" s="76">
         <f ca="1">V54+V56</f>
-        <v>10302.462819614208</v>
+        <v>10303.064285820088</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.25">
@@ -14966,7 +14967,7 @@
       <c r="Q60" s="36"/>
       <c r="V60" s="77">
         <f ca="1">V57+V58-V59</f>
-        <v>9123.9618196142073</v>
+        <v>9124.5632858200879</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.25">
@@ -14994,7 +14995,7 @@
       <c r="U61" s="73"/>
       <c r="V61" s="74">
         <f>+Main!H3</f>
-        <v>56.11</v>
+        <v>54.617358000000003</v>
       </c>
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.25">
@@ -15003,7 +15004,7 @@
       </c>
       <c r="V62" s="77">
         <f ca="1">V60/V61</f>
-        <v>162.60848012144373</v>
+        <v>167.0634322117904</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
@@ -15064,7 +15065,7 @@
       </c>
       <c r="C69" s="79">
         <f ca="1">+J4</f>
-        <v>162.60848012144373</v>
+        <v>167.0634322117904</v>
       </c>
       <c r="D69" s="80">
         <v>0.01</v>
@@ -15092,7 +15093,7 @@
       </c>
       <c r="N69" s="79">
         <f ca="1">+J4</f>
-        <v>162.60848012144373</v>
+        <v>167.0634322117904</v>
       </c>
       <c r="O69" s="80">
         <v>7.0000000000000007E-2</v>
@@ -15123,25 +15124,25 @@
       </c>
       <c r="D70" s="82">
         <f t="dataTable" ref="D70:J76" dt2D="1" dtr="1" r1="E19" r2="E18" ca="1"/>
-        <v>344.62945933209699</v>
+        <v>354.06411711698951</v>
       </c>
       <c r="E70" s="82">
-        <v>366.55173124789758</v>
+        <v>376.58855698778808</v>
       </c>
       <c r="F70" s="82">
-        <v>395.59162391558175</v>
+        <v>406.4261266867681</v>
       </c>
       <c r="G70" s="83">
-        <v>436.01970978627907</v>
+        <v>447.96470411083817</v>
       </c>
       <c r="H70" s="82">
-        <v>496.37713376224985</v>
+        <v>509.98004505381624</v>
       </c>
       <c r="I70" s="82">
-        <v>596.59323394876719</v>
+        <v>612.94891303460975</v>
       </c>
       <c r="J70" s="82">
-        <v>796.45602466165155</v>
+        <v>818.30159860994274</v>
       </c>
       <c r="M70" s="90"/>
       <c r="N70" s="81">
@@ -15149,25 +15150,25 @@
       </c>
       <c r="O70" s="82">
         <f t="dataTable" ref="O70:U76" dt2D="1" dtr="1" r1="E20" r2="E18" ca="1"/>
-        <v>385.99300393018473</v>
+        <v>396.56384874704918</v>
       </c>
       <c r="P70" s="82">
-        <v>406.83746470355743</v>
+        <v>417.98087181529468</v>
       </c>
       <c r="Q70" s="82">
-        <v>423.04982308284724</v>
+        <v>434.63855642392997</v>
       </c>
       <c r="R70" s="83">
-        <v>436.01970978627907</v>
+        <v>447.96470411083817</v>
       </c>
       <c r="S70" s="82">
-        <v>446.63143527090517</v>
+        <v>458.86791585467228</v>
       </c>
       <c r="T70" s="82">
-        <v>455.4745398414268</v>
+        <v>467.95392564120061</v>
       </c>
       <c r="U70" s="82">
-        <v>462.95716678571449</v>
+        <v>475.64208776826308</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
@@ -15176,50 +15177,50 @@
         <v>0.06</v>
       </c>
       <c r="D71" s="82">
-        <v>270.23939253136399</v>
+        <v>277.63868961064566</v>
       </c>
       <c r="E71" s="82">
-        <v>280.5757626918811</v>
+        <v>288.25926211686914</v>
       </c>
       <c r="F71" s="82">
-        <v>293.36600796329378</v>
+        <v>301.40117994371911</v>
       </c>
       <c r="G71" s="83">
-        <v>309.66178910741411</v>
+        <v>318.14501965717807</v>
       </c>
       <c r="H71" s="82">
-        <v>331.21587406059621</v>
+        <v>340.29174220055086</v>
       </c>
       <c r="I71" s="82">
-        <v>361.18324510827682</v>
+        <v>371.08307727178561</v>
       </c>
       <c r="J71" s="82">
-        <v>405.87386682133041</v>
+        <v>417.00248426677894</v>
       </c>
       <c r="M71" s="90"/>
       <c r="N71" s="81">
         <v>0.06</v>
       </c>
       <c r="O71" s="82">
-        <v>276.97455687116479</v>
+        <v>284.55903980141392</v>
       </c>
       <c r="P71" s="82">
-        <v>290.59423696960209</v>
+        <v>298.553198074649</v>
       </c>
       <c r="Q71" s="82">
-        <v>301.18732149060872</v>
+        <v>309.43754339827632</v>
       </c>
       <c r="R71" s="83">
-        <v>309.66178910741411</v>
+        <v>318.14501965717807</v>
       </c>
       <c r="S71" s="82">
-        <v>316.59544443025487</v>
+        <v>325.2693184144614</v>
       </c>
       <c r="T71" s="82">
-        <v>322.37349053262216</v>
+        <v>331.20623404553083</v>
       </c>
       <c r="U71" s="82">
-        <v>327.26260646539453</v>
+        <v>336.22977804105119</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
@@ -15228,50 +15229,50 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D72" s="83">
-        <v>220.69940227446259</v>
+        <v>226.74318508533696</v>
       </c>
       <c r="E72" s="83">
-        <v>225.81487830368624</v>
+        <v>231.99945012776658</v>
       </c>
       <c r="F72" s="83">
-        <v>231.85807625685388</v>
+        <v>238.20897001687422</v>
       </c>
       <c r="G72" s="83">
-        <v>239.13823677528001</v>
+        <v>245.68949636821901</v>
       </c>
       <c r="H72" s="83">
-        <v>248.11922082093679</v>
+        <v>254.91765660514008</v>
       </c>
       <c r="I72" s="83">
-        <v>259.52995276263721</v>
+        <v>266.64243667859847</v>
       </c>
       <c r="J72" s="83">
-        <v>274.5853065484032</v>
+        <v>282.11214650686316</v>
       </c>
       <c r="M72" s="90"/>
       <c r="N72" s="81">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O72" s="83">
-        <v>215.86261440663733</v>
+        <v>221.77327830793067</v>
       </c>
       <c r="P72" s="83">
-        <v>225.56079039357181</v>
+        <v>231.73836916638419</v>
       </c>
       <c r="Q72" s="83">
-        <v>233.1038161611875</v>
+        <v>239.48899538962579</v>
       </c>
       <c r="R72" s="83">
-        <v>239.13823677528001</v>
+        <v>245.68949636821901</v>
       </c>
       <c r="S72" s="83">
-        <v>244.0754900049921</v>
+        <v>250.76263353252264</v>
       </c>
       <c r="T72" s="83">
-        <v>248.18986769641884</v>
+        <v>254.99024783610889</v>
       </c>
       <c r="U72" s="83">
-        <v>251.67126420454915</v>
+        <v>258.56745993914353</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
@@ -15280,50 +15281,50 @@
         <v>0.09</v>
       </c>
       <c r="D73" s="82">
-        <v>158.88680080785136</v>
+        <v>163.23912747443904</v>
       </c>
       <c r="E73" s="82">
-        <v>160.01537630156596</v>
+        <v>164.39882347277737</v>
       </c>
       <c r="F73" s="82">
-        <v>161.2479371958004</v>
+        <v>165.66537227231504</v>
       </c>
       <c r="G73" s="83">
-        <v>162.60848012144373</v>
+        <v>167.0634322117904</v>
       </c>
       <c r="H73" s="82">
-        <v>164.12900058634833</v>
+        <v>168.62588107618794</v>
       </c>
       <c r="I73" s="82">
-        <v>165.85312882849433</v>
+        <v>170.39755220866815</v>
       </c>
       <c r="J73" s="82">
-        <v>167.84194718105445</v>
+        <v>172.44121228965594</v>
       </c>
       <c r="M73" s="90"/>
       <c r="N73" s="81">
         <v>0.09</v>
       </c>
       <c r="O73" s="82">
-        <v>149.06909663809975</v>
+        <v>153.15069980438975</v>
       </c>
       <c r="P73" s="82">
-        <v>154.7105064228264</v>
+        <v>158.9476716408067</v>
       </c>
       <c r="Q73" s="82">
-        <v>159.09826958872492</v>
+        <v>163.45642751357542</v>
       </c>
       <c r="R73" s="83">
-        <v>162.60848012144373</v>
+        <v>167.0634322117904</v>
       </c>
       <c r="S73" s="82">
-        <v>165.48047055730461</v>
+        <v>170.01461787396627</v>
       </c>
       <c r="T73" s="82">
-        <v>167.87379592052201</v>
+        <v>172.47393925911285</v>
       </c>
       <c r="U73" s="82">
-        <v>169.89891738170596</v>
+        <v>174.55490350808304</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
@@ -15332,50 +15333,50 @@
         <v>0.1</v>
       </c>
       <c r="D74" s="82">
-        <v>138.32930627488849</v>
+        <v>142.11903649936133</v>
       </c>
       <c r="E74" s="82">
-        <v>138.69702267648188</v>
+        <v>142.49690227783896</v>
       </c>
       <c r="F74" s="82">
-        <v>139.06473907807529</v>
+        <v>142.87476805631664</v>
       </c>
       <c r="G74" s="83">
-        <v>139.43245547966865</v>
+        <v>143.25263383479427</v>
       </c>
       <c r="H74" s="82">
-        <v>139.80017188126209</v>
+        <v>143.63049961327192</v>
       </c>
       <c r="I74" s="82">
-        <v>140.16788828285544</v>
+        <v>144.00836539174955</v>
       </c>
       <c r="J74" s="82">
-        <v>140.53560468444886</v>
+        <v>144.38623117022726</v>
       </c>
       <c r="M74" s="90"/>
       <c r="N74" s="81">
         <v>0.1</v>
       </c>
       <c r="O74" s="82">
-        <v>128.66361800443354</v>
+        <v>132.18656460794872</v>
       </c>
       <c r="P74" s="82">
-        <v>133.15063361911487</v>
+        <v>136.79742678580104</v>
       </c>
       <c r="Q74" s="82">
-        <v>136.64053465275589</v>
+        <v>140.38365292413062</v>
       </c>
       <c r="R74" s="83">
-        <v>139.43245547966865</v>
+        <v>143.25263383479427</v>
       </c>
       <c r="S74" s="82">
-        <v>141.71675433805186</v>
+        <v>145.59998185260997</v>
       </c>
       <c r="T74" s="82">
-        <v>143.6203367200379</v>
+        <v>147.55610520078977</v>
       </c>
       <c r="U74" s="82">
-        <v>145.23106027402602</v>
+        <v>149.21128649540341</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
@@ -15384,50 +15385,50 @@
         <v>0.11</v>
       </c>
       <c r="D75" s="82">
-        <v>121.90950285849041</v>
+        <v>125.24984236241819</v>
       </c>
       <c r="E75" s="82">
-        <v>121.85262219956134</v>
+        <v>125.19139026540289</v>
       </c>
       <c r="F75" s="82">
-        <v>121.75189603270782</v>
+        <v>125.08788134360496</v>
       </c>
       <c r="G75" s="83">
-        <v>121.59958691535492</v>
+        <v>124.93136439265099</v>
       </c>
       <c r="H75" s="82">
-        <v>121.38602304428396</v>
+        <v>124.71190040707424</v>
       </c>
       <c r="I75" s="82">
-        <v>121.0989534687514</v>
+        <v>124.4168999799501</v>
       </c>
       <c r="J75" s="82">
-        <v>120.72262696637259</v>
+        <v>124.03017673094709</v>
       </c>
       <c r="M75" s="90"/>
       <c r="N75" s="81">
         <v>0.11</v>
       </c>
       <c r="O75" s="82">
-        <v>112.87255829684167</v>
+        <v>115.9632347494812</v>
       </c>
       <c r="P75" s="82">
-        <v>116.50882022122218</v>
+        <v>119.69995543413529</v>
       </c>
       <c r="Q75" s="82">
-        <v>119.33702394018481</v>
+        <v>122.60629374442181</v>
       </c>
       <c r="R75" s="83">
-        <v>121.59958691535492</v>
+        <v>124.93136439265099</v>
       </c>
       <c r="S75" s="82">
-        <v>123.45077480413043</v>
+        <v>126.83369492302033</v>
       </c>
       <c r="T75" s="82">
-        <v>124.99343137811003</v>
+        <v>128.41897036499481</v>
       </c>
       <c r="U75" s="82">
-        <v>126.29875617147742</v>
+        <v>129.76035727743476</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
@@ -15436,50 +15437,50 @@
         <v>0.12</v>
       </c>
       <c r="D76" s="82">
-        <v>108.49775679795189</v>
+        <v>111.47100690237188</v>
       </c>
       <c r="E76" s="82">
-        <v>108.20614668381063</v>
+        <v>111.17133302981465</v>
       </c>
       <c r="F76" s="82">
-        <v>107.85433319126604</v>
+        <v>110.80979100292306</v>
       </c>
       <c r="G76" s="83">
-        <v>107.43281052372808</v>
+        <v>110.37661216574949</v>
       </c>
       <c r="H76" s="82">
-        <v>106.92996048536456</v>
+        <v>109.85985704991369</v>
       </c>
       <c r="I76" s="82">
-        <v>106.33143118720619</v>
+        <v>109.24477690035758</v>
       </c>
       <c r="J76" s="82">
-        <v>105.61928276804154</v>
+        <v>108.51293577325866</v>
       </c>
       <c r="M76" s="91"/>
       <c r="N76" s="81">
         <v>0.12</v>
       </c>
       <c r="O76" s="82">
-        <v>100.25572191531606</v>
+        <v>103.00105887500385</v>
       </c>
       <c r="P76" s="82">
-        <v>103.2461755021544</v>
+        <v>106.07420607948119</v>
       </c>
       <c r="Q76" s="82">
-        <v>105.57208384747312</v>
+        <v>108.46443168296358</v>
       </c>
       <c r="R76" s="83">
-        <v>107.43281052372808</v>
+        <v>110.37661216574949</v>
       </c>
       <c r="S76" s="82">
-        <v>108.95522325884578</v>
+        <v>111.94112346984704</v>
       </c>
       <c r="T76" s="82">
-        <v>110.22390053811051</v>
+        <v>113.24488288992833</v>
       </c>
       <c r="U76" s="82">
-        <v>111.2973966974884</v>
+        <v>114.34806393768946</v>
       </c>
     </row>
   </sheetData>

--- a/CROX.xlsx
+++ b/CROX.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E69DB5-B51C-41AE-A2DB-76B93FA329A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D197906-FCFC-41F6-B4D0-C53D71FB6BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{CE56C274-430F-49C4-B695-C61D5C0F48E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21060" xr2:uid="{CE56C274-430F-49C4-B695-C61D5C0F48E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="341">
   <si>
     <t>Crocs Inc.</t>
   </si>
@@ -1125,6 +1125,9 @@
   </si>
   <si>
     <t>Operating Margin of approximately 18 to 19%</t>
+  </si>
+  <si>
+    <t>https://web.quartr.com/articles/c73151dc-7087-46ee-8927-68817e7948a0</t>
   </si>
 </sst>
 </file>
@@ -1488,7 +1491,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -1635,7 +1638,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2236,10 +2238,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0752DB2D-B359-487B-8CEA-5CA0DA6B29B3}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2269,7 +2271,7 @@
       <c r="G3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="92">
+      <c r="H3" s="4">
         <v>54.617358000000003</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -2493,6 +2495,11 @@
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>339</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -2509,7 +2516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B9F4D1-17EF-4BB4-A228-DFF8F743CBAC}">
   <dimension ref="A1:AD296"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -13141,14 +13148,14 @@
       </c>
       <c r="E4" s="84">
         <f ca="1">+TODAY()</f>
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="G4" t="s">
         <v>259</v>
       </c>
       <c r="J4" s="45">
         <f ca="1">V62</f>
-        <v>167.0634322117904</v>
+        <v>167.10742624478348</v>
       </c>
       <c r="L4" t="s">
         <v>260</v>
@@ -13170,7 +13177,7 @@
       </c>
       <c r="J5" s="48">
         <f ca="1">J4/J3-1</f>
-        <v>1.9948807380705662</v>
+        <v>1.9956694018748271</v>
       </c>
       <c r="L5" t="s">
         <v>262</v>
@@ -14747,43 +14754,43 @@
       <c r="L52" s="71"/>
       <c r="M52" s="71">
         <f ca="1">(M51/(1+$E$18)^M53)*M53</f>
-        <v>266.70332289495002</v>
+        <v>259.4914419951437</v>
       </c>
       <c r="N52" s="71">
         <f ca="1">N51/(1+$E$18)^N53</f>
-        <v>639.4683156275089</v>
+        <v>640.08091894327106</v>
       </c>
       <c r="O52" s="71">
         <f t="shared" ref="O52:U52" ca="1" si="21">O51/(1+$E$18)^O53</f>
-        <v>608.39043859848687</v>
+        <v>608.97326966431967</v>
       </c>
       <c r="P52" s="71">
         <f t="shared" ca="1" si="21"/>
-        <v>578.23291143631911</v>
+        <v>578.7868519368443</v>
       </c>
       <c r="Q52" s="71">
         <f t="shared" ca="1" si="21"/>
-        <v>549.03180274211434</v>
+        <v>549.55776891526034</v>
       </c>
       <c r="R52" s="71">
         <f t="shared" ca="1" si="21"/>
-        <v>520.81442061137739</v>
+        <v>521.31335485591512</v>
       </c>
       <c r="S52" s="71">
         <f t="shared" ca="1" si="21"/>
-        <v>493.60006613380256</v>
+        <v>494.07292933872509</v>
       </c>
       <c r="T52" s="71">
         <f t="shared" ca="1" si="21"/>
-        <v>467.40077148522772</v>
+        <v>467.84853606621516</v>
       </c>
       <c r="U52" s="71">
         <f t="shared" ca="1" si="21"/>
-        <v>442.22201586158792</v>
+        <v>442.64565948332705</v>
       </c>
       <c r="V52" s="72">
         <f ca="1">V51/(1+$E$18)^V53</f>
-        <v>418.06341385629793</v>
+        <v>418.46391381426065</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.25">
@@ -14792,43 +14799,43 @@
       </c>
       <c r="M53" s="85">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.3972222222222222</v>
+        <v>0.38611111111111113</v>
       </c>
       <c r="N53" s="85">
         <f ca="1">M53+1</f>
-        <v>1.3972222222222221</v>
+        <v>1.3861111111111111</v>
       </c>
       <c r="O53" s="85">
         <f ca="1">N53+1</f>
-        <v>2.3972222222222221</v>
+        <v>2.3861111111111111</v>
       </c>
       <c r="P53" s="85">
         <f t="shared" ref="P53:V53" ca="1" si="22">O53+1</f>
-        <v>3.3972222222222221</v>
+        <v>3.3861111111111111</v>
       </c>
       <c r="Q53" s="85">
         <f t="shared" ca="1" si="22"/>
-        <v>4.3972222222222221</v>
+        <v>4.3861111111111111</v>
       </c>
       <c r="R53" s="85">
         <f t="shared" ca="1" si="22"/>
-        <v>5.3972222222222221</v>
+        <v>5.3861111111111111</v>
       </c>
       <c r="S53" s="85">
         <f t="shared" ca="1" si="22"/>
-        <v>6.3972222222222221</v>
+        <v>6.3861111111111111</v>
       </c>
       <c r="T53" s="85">
         <f t="shared" ca="1" si="22"/>
-        <v>7.3972222222222221</v>
+        <v>7.3861111111111111</v>
       </c>
       <c r="U53" s="85">
         <f t="shared" ca="1" si="22"/>
-        <v>8.3972222222222221</v>
+        <v>8.3861111111111111</v>
       </c>
       <c r="V53" s="85">
         <f t="shared" ca="1" si="22"/>
-        <v>9.3972222222222221</v>
+        <v>9.3861111111111111</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.25">
@@ -14841,7 +14848,7 @@
       <c r="Q54" s="36"/>
       <c r="V54" s="29">
         <f ca="1">SUM(M52:V52)</f>
-        <v>4983.9274792476735</v>
+        <v>4981.2346450132827</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.25">
@@ -14885,7 +14892,7 @@
       <c r="U56" s="73"/>
       <c r="V56" s="74">
         <f ca="1">V55/(1+E18)^V53</f>
-        <v>5319.1368065724137</v>
+        <v>5324.2324786566542</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.25">
@@ -14913,7 +14920,7 @@
       <c r="U57" s="75"/>
       <c r="V57" s="76">
         <f ca="1">V54+V56</f>
-        <v>10303.064285820088</v>
+        <v>10305.467123669936</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.25">
@@ -14967,7 +14974,7 @@
       <c r="Q60" s="36"/>
       <c r="V60" s="77">
         <f ca="1">V57+V58-V59</f>
-        <v>9124.5632858200879</v>
+        <v>9126.9661236699358</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.25">
@@ -15004,7 +15011,7 @@
       </c>
       <c r="V62" s="77">
         <f ca="1">V60/V61</f>
-        <v>167.0634322117904</v>
+        <v>167.10742624478348</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.25">
@@ -15065,7 +15072,7 @@
       </c>
       <c r="C69" s="79">
         <f ca="1">+J4</f>
-        <v>167.0634322117904</v>
+        <v>167.10742624478348</v>
       </c>
       <c r="D69" s="80">
         <v>0.01</v>
@@ -15093,7 +15100,7 @@
       </c>
       <c r="N69" s="79">
         <f ca="1">+J4</f>
-        <v>167.0634322117904</v>
+        <v>167.10742624478348</v>
       </c>
       <c r="O69" s="80">
         <v>7.0000000000000007E-2</v>
@@ -15124,25 +15131,25 @@
       </c>
       <c r="D70" s="82">
         <f t="dataTable" ref="D70:J76" dt2D="1" dtr="1" r1="E19" r2="E18" ca="1"/>
-        <v>354.06411711698951</v>
+        <v>354.12910273130871</v>
       </c>
       <c r="E70" s="82">
-        <v>376.58855698778808</v>
+        <v>376.66575670273147</v>
       </c>
       <c r="F70" s="82">
-        <v>406.4261266867681</v>
+        <v>406.51950611942164</v>
       </c>
       <c r="G70" s="83">
-        <v>447.96470411083817</v>
+        <v>448.08060824853914</v>
       </c>
       <c r="H70" s="82">
-        <v>509.98004505381624</v>
+        <v>510.12957762440487</v>
       </c>
       <c r="I70" s="82">
-        <v>612.94891303460975</v>
+        <v>613.15428149376658</v>
       </c>
       <c r="J70" s="82">
-        <v>818.30159860994274</v>
+        <v>818.61832159686912</v>
       </c>
       <c r="M70" s="90"/>
       <c r="N70" s="81">
@@ -15150,25 +15157,25 @@
       </c>
       <c r="O70" s="82">
         <f t="dataTable" ref="O70:U76" dt2D="1" dtr="1" r1="E20" r2="E18" ca="1"/>
-        <v>396.56384874704918</v>
+        <v>396.65188026180419</v>
       </c>
       <c r="P70" s="82">
-        <v>417.98087181529468</v>
+        <v>418.08051692294379</v>
       </c>
       <c r="Q70" s="82">
-        <v>434.63855642392997</v>
+        <v>434.74723432605236</v>
       </c>
       <c r="R70" s="83">
-        <v>447.96470411083817</v>
+        <v>448.08060824853914</v>
       </c>
       <c r="S70" s="82">
-        <v>458.86791585467228</v>
+        <v>458.98973236693746</v>
       </c>
       <c r="T70" s="82">
-        <v>467.95392564120061</v>
+        <v>468.08066913226941</v>
       </c>
       <c r="U70" s="82">
-        <v>475.64208776826308</v>
+        <v>475.77300024139652</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.25">
@@ -15177,50 +15184,50 @@
         <v>0.06</v>
       </c>
       <c r="D71" s="82">
-        <v>277.63868961064566</v>
+        <v>277.69427151046534</v>
       </c>
       <c r="E71" s="82">
-        <v>288.25926211686914</v>
+        <v>288.32172234489212</v>
       </c>
       <c r="F71" s="82">
-        <v>301.40117994371911</v>
+        <v>301.47215142892543</v>
       </c>
       <c r="G71" s="83">
-        <v>318.14501965717807</v>
+        <v>318.22683515525341</v>
       </c>
       <c r="H71" s="82">
-        <v>340.29174220055086</v>
+        <v>340.38790084502375</v>
       </c>
       <c r="I71" s="82">
-        <v>371.08307727178561</v>
+        <v>371.19917767630153</v>
       </c>
       <c r="J71" s="82">
-        <v>417.00248426677894</v>
+        <v>417.14832400521777</v>
       </c>
       <c r="M71" s="90"/>
       <c r="N71" s="81">
         <v>0.06</v>
       </c>
       <c r="O71" s="82">
-        <v>284.55903980141392</v>
+        <v>284.6191036102706</v>
       </c>
       <c r="P71" s="82">
-        <v>298.553198074649</v>
+        <v>298.62232508734678</v>
       </c>
       <c r="Q71" s="82">
-        <v>309.43754339827632</v>
+        <v>309.51371956951715</v>
       </c>
       <c r="R71" s="83">
-        <v>318.14501965717807</v>
+        <v>318.22683515525341</v>
       </c>
       <c r="S71" s="82">
-        <v>325.2693184144614</v>
+        <v>325.3557479072195</v>
       </c>
       <c r="T71" s="82">
-        <v>331.20623404553083</v>
+        <v>331.29650853385783</v>
       </c>
       <c r="U71" s="82">
-        <v>336.22977804105119</v>
+        <v>336.32330598716732</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.25">
@@ -15229,50 +15236,50 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D72" s="83">
-        <v>226.74318508533696</v>
+        <v>226.79223059708022</v>
       </c>
       <c r="E72" s="83">
-        <v>231.99945012776658</v>
+        <v>232.05244858948387</v>
       </c>
       <c r="F72" s="83">
-        <v>238.20897001687422</v>
+        <v>238.26663831949304</v>
       </c>
       <c r="G72" s="83">
-        <v>245.68949636821901</v>
+        <v>245.75279036630934</v>
       </c>
       <c r="H72" s="83">
-        <v>254.91765660514008</v>
+        <v>254.98789059873559</v>
       </c>
       <c r="I72" s="83">
-        <v>266.64243667859847</v>
+        <v>266.72148823917598</v>
       </c>
       <c r="J72" s="83">
-        <v>282.11214650686316</v>
+        <v>282.20283199163782</v>
       </c>
       <c r="M72" s="90"/>
       <c r="N72" s="81">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O72" s="83">
-        <v>221.77327830793067</v>
+        <v>221.81858622411738</v>
       </c>
       <c r="P72" s="83">
-        <v>231.73836916638419</v>
+        <v>231.79117128336404</v>
       </c>
       <c r="Q72" s="83">
-        <v>239.48899538962579</v>
+        <v>239.54762632944477</v>
       </c>
       <c r="R72" s="83">
-        <v>245.68949636821901</v>
+        <v>245.75279036630934</v>
       </c>
       <c r="S72" s="83">
-        <v>250.76263353252264</v>
+        <v>250.82974276010762</v>
       </c>
       <c r="T72" s="83">
-        <v>254.99024783610889</v>
+        <v>255.06053642160617</v>
       </c>
       <c r="U72" s="83">
-        <v>258.56745993914353</v>
+        <v>258.64043875056655</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.25">
@@ -15281,50 +15288,50 @@
         <v>0.09</v>
       </c>
       <c r="D73" s="82">
-        <v>163.23912747443904</v>
+        <v>163.27945786733409</v>
       </c>
       <c r="E73" s="82">
-        <v>164.39882347277737</v>
+        <v>164.44026484114454</v>
       </c>
       <c r="F73" s="82">
-        <v>165.66537227231504</v>
+        <v>165.70802697991294</v>
       </c>
       <c r="G73" s="83">
-        <v>167.0634322117904</v>
+        <v>167.10742624478348</v>
       </c>
       <c r="H73" s="82">
-        <v>168.62588107618794</v>
+        <v>168.67137191728185</v>
       </c>
       <c r="I73" s="82">
-        <v>170.39755220866815</v>
+        <v>170.44474029039725</v>
       </c>
       <c r="J73" s="82">
-        <v>172.44121228965594</v>
+        <v>172.49035817431496</v>
       </c>
       <c r="M73" s="90"/>
       <c r="N73" s="81">
         <v>0.09</v>
       </c>
       <c r="O73" s="82">
-        <v>153.15069980438975</v>
+        <v>153.18136559922661</v>
       </c>
       <c r="P73" s="82">
-        <v>158.9476716408067</v>
+        <v>158.98389086820865</v>
       </c>
       <c r="Q73" s="82">
-        <v>163.45642751357542</v>
+        <v>163.49696607741694</v>
       </c>
       <c r="R73" s="83">
-        <v>167.0634322117904</v>
+        <v>167.10742624478348</v>
       </c>
       <c r="S73" s="82">
-        <v>170.01461787396627</v>
+        <v>170.06143910899252</v>
       </c>
       <c r="T73" s="82">
-        <v>172.47393925911285</v>
+        <v>172.52311649583348</v>
       </c>
       <c r="U73" s="82">
-        <v>174.55490350808304</v>
+        <v>174.60607428469879</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.25">
@@ -15333,50 +15340,50 @@
         <v>0.1</v>
       </c>
       <c r="D74" s="82">
-        <v>142.11903649936133</v>
+        <v>142.15624270845001</v>
       </c>
       <c r="E74" s="82">
-        <v>142.49690227783896</v>
+        <v>142.53450885950224</v>
       </c>
       <c r="F74" s="82">
-        <v>142.87476805631664</v>
+        <v>142.91277501055447</v>
       </c>
       <c r="G74" s="83">
-        <v>143.25263383479427</v>
+        <v>143.2910411616067</v>
       </c>
       <c r="H74" s="82">
-        <v>143.63049961327192</v>
+        <v>143.66930731265893</v>
       </c>
       <c r="I74" s="82">
-        <v>144.00836539174955</v>
+        <v>144.04757346371116</v>
       </c>
       <c r="J74" s="82">
-        <v>144.38623117022726</v>
+        <v>144.42583961476339</v>
       </c>
       <c r="M74" s="90"/>
       <c r="N74" s="81">
         <v>0.1</v>
       </c>
       <c r="O74" s="82">
-        <v>132.18656460794872</v>
+        <v>132.21324673793421</v>
       </c>
       <c r="P74" s="82">
-        <v>136.79742678580104</v>
+        <v>136.8289944144644</v>
       </c>
       <c r="Q74" s="82">
-        <v>140.38365292413062</v>
+        <v>140.419020385099</v>
       </c>
       <c r="R74" s="83">
-        <v>143.25263383479427</v>
+        <v>143.2910411616067</v>
       </c>
       <c r="S74" s="82">
-        <v>145.59998185260997</v>
+        <v>145.6408763423857</v>
       </c>
       <c r="T74" s="82">
-        <v>147.55610520078977</v>
+        <v>147.5990723263682</v>
       </c>
       <c r="U74" s="82">
-        <v>149.21128649540341</v>
+        <v>149.25600738973802</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.25">
@@ -15385,50 +15392,50 @@
         <v>0.11</v>
       </c>
       <c r="D75" s="82">
-        <v>125.24984236241819</v>
+        <v>125.28443023891772</v>
       </c>
       <c r="E75" s="82">
-        <v>125.19139026540289</v>
+        <v>125.22591032412699</v>
       </c>
       <c r="F75" s="82">
-        <v>125.08788134360496</v>
+        <v>125.12228130835175</v>
       </c>
       <c r="G75" s="83">
-        <v>124.93136439265099</v>
+        <v>124.96558276200646</v>
       </c>
       <c r="H75" s="82">
-        <v>124.71190040707424</v>
+        <v>124.74586414810929</v>
       </c>
       <c r="I75" s="82">
-        <v>124.4168999799501</v>
+        <v>124.45052145314979</v>
       </c>
       <c r="J75" s="82">
-        <v>124.03017673094709</v>
+        <v>124.06334951690043</v>
       </c>
       <c r="M75" s="90"/>
       <c r="N75" s="81">
         <v>0.11</v>
       </c>
       <c r="O75" s="82">
-        <v>115.9632347494812</v>
+        <v>115.98704804129122</v>
       </c>
       <c r="P75" s="82">
-        <v>119.69995543413529</v>
+        <v>119.72810417492259</v>
       </c>
       <c r="Q75" s="82">
-        <v>122.60629374442181</v>
+        <v>122.63781450108027</v>
       </c>
       <c r="R75" s="83">
-        <v>124.93136439265099</v>
+        <v>124.96558276200646</v>
       </c>
       <c r="S75" s="82">
-        <v>126.83369492302033</v>
+        <v>126.87012043003695</v>
       </c>
       <c r="T75" s="82">
-        <v>128.41897036499481</v>
+        <v>128.45723515339571</v>
       </c>
       <c r="U75" s="82">
-        <v>129.76035727743476</v>
+        <v>129.80017838085314</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.25">
@@ -15437,50 +15444,50 @@
         <v>0.12</v>
       </c>
       <c r="D76" s="82">
-        <v>111.47100690237188</v>
+        <v>111.50335208338097</v>
       </c>
       <c r="E76" s="82">
-        <v>111.17133302981465</v>
+        <v>111.20330062151979</v>
       </c>
       <c r="F76" s="82">
-        <v>110.80979100292306</v>
+        <v>110.84130305140337</v>
       </c>
       <c r="G76" s="83">
-        <v>110.37661216574949</v>
+        <v>110.4075784085704</v>
       </c>
       <c r="H76" s="82">
-        <v>109.85985704991369</v>
+        <v>109.89017218090147</v>
       </c>
       <c r="I76" s="82">
-        <v>109.24477690035758</v>
+        <v>109.27431702989604</v>
       </c>
       <c r="J76" s="82">
-        <v>108.51293577325866</v>
+        <v>108.54155378242858</v>
       </c>
       <c r="M76" s="91"/>
       <c r="N76" s="81">
         <v>0.12</v>
       </c>
       <c r="O76" s="82">
-        <v>103.00105887500385</v>
+        <v>103.02273191515191</v>
       </c>
       <c r="P76" s="82">
-        <v>106.07420607948119</v>
+        <v>106.09975128740962</v>
       </c>
       <c r="Q76" s="82">
-        <v>108.46443168296358</v>
+        <v>108.4929885769434</v>
       </c>
       <c r="R76" s="83">
-        <v>110.37661216574949</v>
+        <v>110.4075784085704</v>
       </c>
       <c r="S76" s="82">
-        <v>111.94112346984704</v>
+        <v>111.97406099808343</v>
       </c>
       <c r="T76" s="82">
-        <v>113.24488288992833</v>
+        <v>113.27946315601095</v>
       </c>
       <c r="U76" s="82">
-        <v>114.34806393768946</v>
+        <v>114.38403421271883</v>
       </c>
     </row>
   </sheetData>

--- a/CROX.xlsx
+++ b/CROX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3106F499-044F-4917-92DA-A29502CFFD21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E051E6-C5CE-4BCB-9F92-4BFEE4C30E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="3510" windowWidth="38175" windowHeight="15240" activeTab="5" xr2:uid="{CE56C274-430F-49C4-B695-C61D5C0F48E5}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{CE56C274-430F-49C4-B695-C61D5C0F48E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4276,13 +4276,19 @@
     <numFmt numFmtId="172" formatCode="0.0"/>
     <numFmt numFmtId="173" formatCode="0.000"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4646,173 +4652,176 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="1" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="2" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="1" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="2" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="9" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="9" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="9" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="9" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="9" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="9" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="9" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="9" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="10" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="10" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="10" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="10" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="10" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="10" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="10" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="10" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="14" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="8" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="15" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="9" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4927,16 +4936,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>157163</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>14288</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4951,8 +4960,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="8015288" y="157163"/>
-          <a:ext cx="9525" cy="8701087"/>
+          <a:off x="8624888" y="185738"/>
+          <a:ext cx="9525" cy="7386637"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5416,8 +5425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0752DB2D-B359-487B-8CEA-5CA0DA6B29B3}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5442,7 +5451,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="77">
-        <v>55.783000000000001</v>
+        <v>81.19</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -5450,10 +5459,10 @@
         <v>3</v>
       </c>
       <c r="H3" s="77">
-        <v>54.617358000000003</v>
-      </c>
-      <c r="I3" s="78" t="s">
-        <v>333</v>
+        <v>51.915657000000003</v>
+      </c>
+      <c r="I3" s="104" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -5465,7 +5474,7 @@
       </c>
       <c r="H4" s="77">
         <f>H3*H2</f>
-        <v>3046.7200813140003</v>
+        <v>4215.0321918300006</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -5476,10 +5485,10 @@
         <v>5</v>
       </c>
       <c r="H5" s="77">
-        <v>200.61099999999999</v>
-      </c>
-      <c r="I5" s="78" t="s">
-        <v>333</v>
+        <v>153.97</v>
+      </c>
+      <c r="I5" s="104" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -5487,10 +5496,10 @@
         <v>6</v>
       </c>
       <c r="H6" s="77">
-        <v>1379.1120000000001</v>
-      </c>
-      <c r="I6" s="78" t="s">
-        <v>333</v>
+        <v>1318.498</v>
+      </c>
+      <c r="I6" s="104" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -5511,7 +5520,7 @@
       </c>
       <c r="H7" s="77">
         <f>H4+H6-H5</f>
-        <v>4225.221081314</v>
+        <v>5379.5601918300008</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -5695,10 +5704,10 @@
   <dimension ref="A1:AD296"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6139,7 +6148,9 @@
       <c r="L12" s="77">
         <v>457.13</v>
       </c>
-      <c r="M12" s="77"/>
+      <c r="M12" s="77">
+        <v>447.70499999999998</v>
+      </c>
       <c r="N12" s="77"/>
       <c r="O12" s="77"/>
       <c r="P12" s="77">
@@ -6204,7 +6215,9 @@
       <c r="L13" s="77">
         <v>502.46</v>
       </c>
-      <c r="M13" s="77"/>
+      <c r="M13" s="77">
+        <v>388.524</v>
+      </c>
       <c r="N13" s="77"/>
       <c r="O13" s="77"/>
       <c r="P13" s="77">
@@ -6268,7 +6281,9 @@
         <f>+L12+L13</f>
         <v>959.58999999999992</v>
       </c>
-      <c r="M14" s="77"/>
+      <c r="M14" s="77">
+        <v>836.22900000000004</v>
+      </c>
       <c r="N14" s="77"/>
       <c r="O14" s="77"/>
       <c r="P14" s="77">
@@ -6331,7 +6346,9 @@
       <c r="L15" s="77">
         <v>189.78299999999999</v>
       </c>
-      <c r="M15" s="77"/>
+      <c r="M15" s="77">
+        <v>160.072</v>
+      </c>
       <c r="N15" s="77"/>
       <c r="O15" s="77"/>
       <c r="P15" s="81" t="s">
@@ -6401,7 +6418,10 @@
         <f>464.679+99.76</f>
         <v>564.43899999999996</v>
       </c>
-      <c r="M16" s="77"/>
+      <c r="M16" s="77">
+        <f>364.356+69.402</f>
+        <v>433.75799999999998</v>
+      </c>
       <c r="N16" s="77"/>
       <c r="O16" s="77"/>
       <c r="P16" s="77">
@@ -6474,7 +6494,10 @@
         <f>494.911+90.023</f>
         <v>584.93399999999997</v>
       </c>
-      <c r="M17" s="77"/>
+      <c r="M17" s="77">
+        <f>471.873+90.67</f>
+        <v>562.54300000000001</v>
+      </c>
       <c r="N17" s="77"/>
       <c r="O17" s="77"/>
       <c r="P17" s="77">
@@ -6541,8 +6564,13 @@
       <c r="L18" s="82">
         <v>1149.373</v>
       </c>
-      <c r="M18" s="82"/>
-      <c r="N18" s="82"/>
+      <c r="M18" s="82">
+        <v>996.30100000000004</v>
+      </c>
+      <c r="N18" s="82">
+        <f>+J18*(1-8%)</f>
+        <v>910.59116000000017</v>
+      </c>
       <c r="O18" s="82"/>
       <c r="P18" s="82">
         <v>1088.2049999999999</v>
@@ -6610,7 +6638,9 @@
       <c r="L19" s="77">
         <v>440.53699999999998</v>
       </c>
-      <c r="M19" s="77"/>
+      <c r="M19" s="77">
+        <v>413.29300000000001</v>
+      </c>
       <c r="N19" s="77"/>
       <c r="O19" s="77"/>
       <c r="P19" s="77">
@@ -6660,7 +6690,7 @@
         <v>522.077</v>
       </c>
       <c r="H20" s="77">
-        <f t="shared" ref="H20:L20" si="4">H18-H19</f>
+        <f t="shared" ref="H20:M20" si="4">H18-H19</f>
         <v>681.91599999999994</v>
       </c>
       <c r="I20" s="77">
@@ -6679,7 +6709,10 @@
         <f t="shared" si="4"/>
         <v>708.83600000000001</v>
       </c>
-      <c r="M20" s="77"/>
+      <c r="M20" s="77">
+        <f t="shared" si="4"/>
+        <v>583.00800000000004</v>
+      </c>
       <c r="N20" s="77"/>
       <c r="O20" s="77"/>
       <c r="P20" s="77">
@@ -6747,7 +6780,9 @@
       <c r="L21" s="77">
         <v>1136.3520000000001</v>
       </c>
-      <c r="M21" s="77"/>
+      <c r="M21" s="77">
+        <v>375.34800000000001</v>
+      </c>
       <c r="N21" s="77"/>
       <c r="O21" s="77"/>
       <c r="P21" s="77">
@@ -6799,7 +6834,7 @@
         <v>226.42899999999997</v>
       </c>
       <c r="H22" s="77">
-        <f t="shared" ref="H22:L22" si="8">H20-H21</f>
+        <f t="shared" ref="H22:M22" si="8">H20-H21</f>
         <v>325.73799999999994</v>
       </c>
       <c r="I22" s="77">
@@ -6818,7 +6853,10 @@
         <f t="shared" si="8"/>
         <v>-427.51600000000008</v>
       </c>
-      <c r="M22" s="77"/>
+      <c r="M22" s="77">
+        <f t="shared" si="8"/>
+        <v>207.66000000000003</v>
+      </c>
       <c r="N22" s="77"/>
       <c r="O22" s="77"/>
       <c r="P22" s="77">
@@ -6886,7 +6924,9 @@
       <c r="L23" s="77">
         <v>-0.434</v>
       </c>
-      <c r="M23" s="77"/>
+      <c r="M23" s="77">
+        <v>-2.9569999999999999</v>
+      </c>
       <c r="N23" s="77"/>
       <c r="O23" s="77"/>
       <c r="P23" s="77">
@@ -6947,7 +6987,9 @@
       <c r="L24" s="77">
         <v>0.371</v>
       </c>
-      <c r="M24" s="77"/>
+      <c r="M24" s="77">
+        <v>0.53100000000000003</v>
+      </c>
       <c r="N24" s="77"/>
       <c r="O24" s="77"/>
       <c r="P24" s="77">
@@ -7008,7 +7050,9 @@
       <c r="L25" s="77">
         <v>22.523</v>
       </c>
-      <c r="M25" s="77"/>
+      <c r="M25" s="77">
+        <v>21.710999999999999</v>
+      </c>
       <c r="N25" s="77"/>
       <c r="O25" s="77"/>
       <c r="P25" s="77">
@@ -7069,7 +7113,9 @@
       <c r="L26" s="77">
         <v>0.627</v>
       </c>
-      <c r="M26" s="77"/>
+      <c r="M26" s="77">
+        <v>8.9999999999999993E-3</v>
+      </c>
       <c r="N26" s="77"/>
       <c r="O26" s="77"/>
       <c r="P26" s="77">
@@ -7138,7 +7184,10 @@
         <f>L22-L23+L24-L25+L26</f>
         <v>-448.60700000000008</v>
       </c>
-      <c r="M27" s="77"/>
+      <c r="M27" s="77">
+        <f>M22-M23+M24-M25+M26</f>
+        <v>189.446</v>
+      </c>
       <c r="N27" s="77"/>
       <c r="O27" s="77"/>
       <c r="P27" s="77">
@@ -7206,7 +7255,9 @@
       <c r="L28" s="77">
         <v>43.674999999999997</v>
       </c>
-      <c r="M28" s="77"/>
+      <c r="M28" s="77">
+        <v>43.612000000000002</v>
+      </c>
       <c r="N28" s="77"/>
       <c r="O28" s="77"/>
       <c r="P28" s="77">
@@ -7276,7 +7327,10 @@
         <f>L27-L28</f>
         <v>-492.2820000000001</v>
       </c>
-      <c r="M29" s="77"/>
+      <c r="M29" s="77">
+        <f>M27-M28</f>
+        <v>145.834</v>
+      </c>
       <c r="N29" s="77"/>
       <c r="O29" s="77"/>
       <c r="P29" s="77">
@@ -7374,7 +7428,10 @@
         <f>+L29/L32</f>
         <v>-8.8249466683398179</v>
       </c>
-      <c r="M31" s="77"/>
+      <c r="M31" s="83">
+        <f>+M29/M32</f>
+        <v>2.7187039764359353</v>
+      </c>
       <c r="N31" s="77"/>
       <c r="O31" s="77"/>
       <c r="P31" s="83">
@@ -7440,7 +7497,9 @@
       <c r="L32" s="77">
         <v>55.783000000000001</v>
       </c>
-      <c r="M32" s="77"/>
+      <c r="M32" s="77">
+        <v>53.640999999999998</v>
+      </c>
       <c r="N32" s="77"/>
       <c r="O32" s="77"/>
       <c r="P32" s="77">
@@ -7846,8 +7905,14 @@
         <f t="shared" si="20"/>
         <v>3.4071913500830497E-2</v>
       </c>
-      <c r="M42" s="85"/>
-      <c r="N42" s="85"/>
+      <c r="M42" s="85">
+        <f>M18/I18-1</f>
+        <v>-6.2040105441536486E-2</v>
+      </c>
+      <c r="N42" s="85">
+        <f>N18/J18-1</f>
+        <v>-7.999999999999996E-2</v>
+      </c>
       <c r="O42" s="82"/>
       <c r="P42" s="86" t="s">
         <v>120</v>
@@ -7921,8 +7986,14 @@
         <f t="shared" si="24"/>
         <v>0.61671537438238067</v>
       </c>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
+      <c r="M43" s="11">
+        <f>M20/M18</f>
+        <v>0.58517255327456263</v>
+      </c>
+      <c r="N43" s="11">
+        <f>N20/N18</f>
+        <v>0</v>
+      </c>
       <c r="O43" s="77"/>
       <c r="P43" s="11">
         <f t="shared" ref="P43" si="25">P20/P18</f>
@@ -7997,8 +8068,14 @@
         <f t="shared" si="29"/>
         <v>-0.37195584027117401</v>
       </c>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
+      <c r="M44" s="11">
+        <f>M22/M18</f>
+        <v>0.20843098621802048</v>
+      </c>
+      <c r="N44" s="11">
+        <f>N22/N18</f>
+        <v>0</v>
+      </c>
       <c r="O44" s="77"/>
       <c r="P44" s="11">
         <f t="shared" ref="P44" si="30">P22/P18</f>
@@ -8073,8 +8150,14 @@
         <f t="shared" si="34"/>
         <v>-0.42830482358642502</v>
       </c>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
+      <c r="M45" s="11">
+        <f>M29/M18</f>
+        <v>0.14637544276277953</v>
+      </c>
+      <c r="N45" s="11">
+        <f>N29/N18</f>
+        <v>0</v>
+      </c>
       <c r="O45" s="77"/>
       <c r="P45" s="11">
         <f t="shared" ref="P45" si="35">P29/P18</f>
@@ -8149,8 +8232,14 @@
         <f>L28/L27</f>
         <v>-9.735692933904283E-2</v>
       </c>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
+      <c r="M46" s="11">
+        <f>M28/M27</f>
+        <v>0.23020808040285887</v>
+      </c>
+      <c r="N46" s="11" t="e">
+        <f>N28/N27</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="O46" s="77"/>
       <c r="P46" s="11">
         <f t="shared" ref="P46" si="39">P28/P27</f>
@@ -16231,7 +16320,7 @@
       </c>
       <c r="F35" s="5">
         <f>+Main!H6</f>
-        <v>1379.1120000000001</v>
+        <v>1318.498</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -16240,7 +16329,7 @@
       </c>
       <c r="F36" s="5">
         <f>+Main!H4</f>
-        <v>3046.7200813140003</v>
+        <v>4215.0321918300006</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -16249,7 +16338,7 @@
       </c>
       <c r="F37" s="5">
         <f>F35+F36</f>
-        <v>4425.8320813139999</v>
+        <v>5533.5301918300011</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -16272,7 +16361,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="74">
         <f>+((F35/F37)*F32*(1-F39))+(F36/F37)*F22</f>
-        <v>0.10508964545773343</v>
+        <v>0.11270769913905518</v>
       </c>
       <c r="H41" s="54" t="s">
         <v>254</v>
@@ -16349,14 +16438,14 @@
       </c>
       <c r="J3" s="20">
         <f>+Main!H2</f>
-        <v>55.783000000000001</v>
+        <v>81.19</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>257</v>
       </c>
       <c r="O3" s="20">
         <f>+J3</f>
-        <v>55.783000000000001</v>
+        <v>81.19</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
@@ -16365,14 +16454,14 @@
       </c>
       <c r="E4" s="21">
         <f ca="1">+TODAY()</f>
-        <v>45909</v>
+        <v>45961</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>259</v>
       </c>
       <c r="J4" s="22">
         <f ca="1">V62</f>
-        <v>137.7106361037097</v>
+        <v>145.67936359920941</v>
       </c>
       <c r="L4" s="5" t="s">
         <v>260</v>
@@ -16394,7 +16483,7 @@
       </c>
       <c r="J5" s="24">
         <f ca="1">J4/J3-1</f>
-        <v>1.4686846548896564</v>
+        <v>0.79430180563135133</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>262</v>
@@ -17983,43 +18072,43 @@
       <c r="L52" s="50"/>
       <c r="M52" s="50">
         <f ca="1">(M51/(1+$E$18)^M53)*M53</f>
-        <v>209.54946773912502</v>
+        <v>113.88938031824398</v>
       </c>
       <c r="N52" s="50">
         <f ca="1">N51/(1+$E$18)^N53</f>
-        <v>632.78969934966267</v>
+        <v>641.98198488444223</v>
       </c>
       <c r="O52" s="50">
         <f t="shared" ref="O52:U52" ca="1" si="21">O51/(1+$E$18)^O53</f>
-        <v>593.86396029436946</v>
+        <v>602.49078702282475</v>
       </c>
       <c r="P52" s="50">
         <f t="shared" ca="1" si="21"/>
-        <v>556.7646032148823</v>
+        <v>564.85250226518178</v>
       </c>
       <c r="Q52" s="50">
         <f t="shared" ca="1" si="21"/>
-        <v>521.47144441883268</v>
+        <v>529.04665371863371</v>
       </c>
       <c r="R52" s="50">
         <f t="shared" ca="1" si="21"/>
-        <v>487.95553705934492</v>
+        <v>495.04387403691578</v>
       </c>
       <c r="S52" s="50">
         <f t="shared" ca="1" si="21"/>
-        <v>456.18046012096198</v>
+        <v>462.80721313089339</v>
       </c>
       <c r="T52" s="50">
         <f t="shared" ca="1" si="21"/>
-        <v>426.10351277900406</v>
+        <v>432.29334987790537</v>
       </c>
       <c r="U52" s="50">
         <f t="shared" ca="1" si="21"/>
-        <v>397.67681284099024</v>
+        <v>403.45370651981017</v>
       </c>
       <c r="V52" s="51">
         <f ca="1">V51/(1+$E$18)^V53</f>
-        <v>370.84829964667682</v>
+        <v>376.2354661317558</v>
       </c>
     </row>
     <row r="53" spans="2:24" x14ac:dyDescent="0.2">
@@ -18028,43 +18117,43 @@
       </c>
       <c r="M53" s="52">
         <f ca="1">YEARFRAC(E4,E5)</f>
-        <v>0.31111111111111112</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="N53" s="52">
         <f ca="1">M53+1</f>
-        <v>1.3111111111111111</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="O53" s="52">
         <f ca="1">N53+1</f>
-        <v>2.3111111111111109</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="P53" s="52">
         <f t="shared" ref="P53:V53" ca="1" si="22">O53+1</f>
-        <v>3.3111111111111109</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="Q53" s="52">
         <f t="shared" ca="1" si="22"/>
-        <v>4.3111111111111109</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="R53" s="52">
         <f t="shared" ca="1" si="22"/>
-        <v>5.3111111111111109</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="S53" s="52">
         <f t="shared" ca="1" si="22"/>
-        <v>6.3111111111111109</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="T53" s="52">
         <f t="shared" ca="1" si="22"/>
-        <v>7.3111111111111109</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="U53" s="52">
         <f t="shared" ca="1" si="22"/>
-        <v>8.31111111111111</v>
+        <v>8.1666666666666679</v>
       </c>
       <c r="V53" s="52">
         <f t="shared" ca="1" si="22"/>
-        <v>9.31111111111111</v>
+        <v>9.1666666666666679</v>
       </c>
     </row>
     <row r="54" spans="2:24" x14ac:dyDescent="0.2">
@@ -18077,7 +18166,7 @@
       <c r="Q54" s="53"/>
       <c r="V54" s="32">
         <f ca="1">SUM(M52:V52)</f>
-        <v>4653.2037974638497</v>
+        <v>4622.0949179066074</v>
       </c>
     </row>
     <row r="55" spans="2:24" x14ac:dyDescent="0.2">
@@ -18121,7 +18210,7 @@
       <c r="U56" s="55"/>
       <c r="V56" s="56">
         <f ca="1">V55/(1+E18)^V53</f>
-        <v>4046.6883150201888</v>
+        <v>4105.4729546882345</v>
       </c>
     </row>
     <row r="57" spans="2:24" x14ac:dyDescent="0.2">
@@ -18149,7 +18238,7 @@
       <c r="U57" s="57"/>
       <c r="V57" s="58">
         <f ca="1">V54+V56</f>
-        <v>8699.8921124840381</v>
+        <v>8727.5678725948419</v>
       </c>
     </row>
     <row r="58" spans="2:24" x14ac:dyDescent="0.2">
@@ -18162,7 +18251,7 @@
       <c r="Q58" s="53"/>
       <c r="V58" s="59">
         <f>+Main!H5</f>
-        <v>200.61099999999999</v>
+        <v>153.97</v>
       </c>
     </row>
     <row r="59" spans="2:24" x14ac:dyDescent="0.2">
@@ -18190,7 +18279,7 @@
       <c r="U59" s="55"/>
       <c r="V59" s="56">
         <f>+Main!H6</f>
-        <v>1379.1120000000001</v>
+        <v>1318.498</v>
       </c>
     </row>
     <row r="60" spans="2:24" x14ac:dyDescent="0.2">
@@ -18203,7 +18292,7 @@
       <c r="Q60" s="53"/>
       <c r="V60" s="59">
         <f ca="1">V57+V58-V59</f>
-        <v>7521.3911124840388</v>
+        <v>7563.0398725948417</v>
       </c>
     </row>
     <row r="61" spans="2:24" x14ac:dyDescent="0.2">
@@ -18231,7 +18320,7 @@
       <c r="U61" s="55"/>
       <c r="V61" s="56">
         <f>+Main!H3</f>
-        <v>54.617358000000003</v>
+        <v>51.915657000000003</v>
       </c>
     </row>
     <row r="62" spans="2:24" x14ac:dyDescent="0.2">
@@ -18240,7 +18329,7 @@
       </c>
       <c r="V62" s="59">
         <f ca="1">V60/V61</f>
-        <v>137.7106361037097</v>
+        <v>145.67936359920941</v>
       </c>
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
@@ -18301,7 +18390,7 @@
       </c>
       <c r="C69" s="61">
         <f ca="1">+J4</f>
-        <v>137.7106361037097</v>
+        <v>145.67936359920941</v>
       </c>
       <c r="D69" s="62">
         <v>0.01</v>
@@ -18329,7 +18418,7 @@
       </c>
       <c r="N69" s="61">
         <f ca="1">+J4</f>
-        <v>137.7106361037097</v>
+        <v>145.67936359920941</v>
       </c>
       <c r="O69" s="62">
         <v>7.0000000000000007E-2</v>
@@ -18360,25 +18449,25 @@
       </c>
       <c r="D70" s="64">
         <f t="dataTable" ref="D70:J76" dt2D="1" dtr="1" r1="E19" r2="E18" ca="1"/>
-        <v>359.51161273624069</v>
+        <v>379.40778611063246</v>
       </c>
       <c r="E70" s="64">
-        <v>385.7049262093779</v>
+        <v>407.15909368119321</v>
       </c>
       <c r="F70" s="64">
-        <v>420.46614595877492</v>
+        <v>443.98793176548884</v>
       </c>
       <c r="G70" s="65">
-        <v>468.93601575018755</v>
+        <v>495.34081867176008</v>
       </c>
       <c r="H70" s="64">
-        <v>541.39602311512783</v>
+        <v>572.11079101648909</v>
       </c>
       <c r="I70" s="64">
-        <v>661.83630562712301</v>
+        <v>699.71493423813297</v>
       </c>
       <c r="J70" s="64">
-        <v>902.22727600675557</v>
+        <v>954.40450465206425</v>
       </c>
       <c r="M70" s="102"/>
       <c r="N70" s="63">
@@ -18386,25 +18475,25 @@
       </c>
       <c r="O70" s="64">
         <f t="dataTable" ref="O70:U76" dt2D="1" dtr="1" r1="E20" r2="E18" ca="1"/>
-        <v>397.24537139780949</v>
+        <v>419.38597151601965</v>
       </c>
       <c r="P70" s="64">
-        <v>418.75256470352298</v>
+        <v>442.17242566274189</v>
       </c>
       <c r="Q70" s="64">
-        <v>435.4803817190778</v>
+        <v>459.89522333241462</v>
       </c>
       <c r="R70" s="65">
-        <v>448.86263533152169</v>
+        <v>474.07346146815286</v>
       </c>
       <c r="S70" s="64">
-        <v>459.81175192352129</v>
+        <v>485.67383812466585</v>
       </c>
       <c r="T70" s="64">
-        <v>468.93601575018755</v>
+        <v>495.34081867176008</v>
       </c>
       <c r="U70" s="64">
-        <v>476.65654668044374</v>
+        <v>503.52057144237841</v>
       </c>
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
@@ -18413,50 +18502,50 @@
         <v>0.06</v>
       </c>
       <c r="D71" s="64">
-        <v>281.68979296826632</v>
+        <v>297.40032198893579</v>
       </c>
       <c r="E71" s="64">
-        <v>294.80817017248086</v>
+        <v>311.31803060669415</v>
       </c>
       <c r="F71" s="64">
-        <v>311.09408264696128</v>
+        <v>328.59627934628037</v>
       </c>
       <c r="G71" s="65">
-        <v>331.90504550753593</v>
+        <v>350.67529968847765</v>
       </c>
       <c r="H71" s="64">
-        <v>359.50358394725185</v>
+        <v>379.95547743459156</v>
       </c>
       <c r="I71" s="64">
-        <v>397.96224331359366</v>
+        <v>420.75750702697201</v>
       </c>
       <c r="J71" s="64">
-        <v>455.42611430153113</v>
+        <v>481.72277735031918</v>
       </c>
       <c r="M71" s="102"/>
       <c r="N71" s="63">
         <v>0.06</v>
       </c>
       <c r="O71" s="64">
-        <v>285.02320609635132</v>
+        <v>300.93684726924209</v>
       </c>
       <c r="P71" s="64">
-        <v>299.08775791970675</v>
+        <v>315.85838299501279</v>
       </c>
       <c r="Q71" s="64">
-        <v>310.02685378231649</v>
+        <v>327.46402189283435</v>
       </c>
       <c r="R71" s="65">
-        <v>318.7781304724042</v>
+        <v>336.74853301109164</v>
       </c>
       <c r="S71" s="64">
-        <v>325.93826594611238</v>
+        <v>344.34495119875663</v>
       </c>
       <c r="T71" s="64">
-        <v>331.90504550753593</v>
+        <v>350.67529968847765</v>
       </c>
       <c r="U71" s="64">
-        <v>336.95385898258655</v>
+        <v>356.03174841054914</v>
       </c>
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
@@ -18465,50 +18554,50 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="D72" s="65">
-        <v>229.88699545640867</v>
+        <v>242.80614758720318</v>
       </c>
       <c r="E72" s="65">
-        <v>236.95621311111492</v>
+        <v>250.31628720086798</v>
       </c>
       <c r="F72" s="65">
-        <v>245.3571319789437</v>
+        <v>259.24118903048731</v>
       </c>
       <c r="G72" s="65">
-        <v>255.53365246426901</v>
+        <v>270.05244048137916</v>
       </c>
       <c r="H72" s="65">
-        <v>268.15162517365235</v>
+        <v>283.45742266152098</v>
       </c>
       <c r="I72" s="65">
-        <v>284.25738677454689</v>
+        <v>300.56773445487676</v>
       </c>
       <c r="J72" s="65">
-        <v>305.5948317127083</v>
+        <v>323.2360406680537</v>
       </c>
       <c r="M72" s="102"/>
       <c r="N72" s="63">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="O72" s="65">
-        <v>222.12259065306301</v>
+        <v>234.55746054171163</v>
       </c>
       <c r="P72" s="65">
-        <v>232.14590919642487</v>
+        <v>245.20595452361192</v>
       </c>
       <c r="Q72" s="65">
-        <v>239.94182361903955</v>
+        <v>253.48811650953436</v>
       </c>
       <c r="R72" s="65">
-        <v>246.17855515713137</v>
+        <v>260.11384609827229</v>
       </c>
       <c r="S72" s="65">
-        <v>251.28133550647919</v>
+        <v>265.53489757996692</v>
       </c>
       <c r="T72" s="65">
-        <v>255.53365246426901</v>
+        <v>270.05244048137916</v>
       </c>
       <c r="U72" s="65">
-        <v>259.13176681316821</v>
+        <v>273.87497678257415</v>
       </c>
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
@@ -18517,50 +18606,50 @@
         <v>0.09</v>
       </c>
       <c r="D73" s="64">
-        <v>165.29484966234469</v>
+        <v>174.72291232733284</v>
       </c>
       <c r="E73" s="64">
-        <v>167.52436266878954</v>
+        <v>177.09782909494857</v>
       </c>
       <c r="F73" s="64">
-        <v>170.02299740026481</v>
+        <v>179.75941909364963</v>
       </c>
       <c r="G73" s="65">
-        <v>172.85285887023903</v>
+        <v>182.7738376844558</v>
       </c>
       <c r="H73" s="64">
-        <v>176.09675376333703</v>
+        <v>186.22929201539341</v>
       </c>
       <c r="I73" s="64">
-        <v>179.86760028586519</v>
+        <v>190.2460645610436</v>
       </c>
       <c r="J73" s="64">
-        <v>184.32348392665276</v>
+        <v>194.9925507858203</v>
       </c>
       <c r="M73" s="102"/>
       <c r="N73" s="63">
         <v>0.09</v>
       </c>
       <c r="O73" s="64">
-        <v>153.38569103987925</v>
+        <v>162.03706549937968</v>
       </c>
       <c r="P73" s="64">
-        <v>159.22584138898716</v>
+        <v>168.25809715490252</v>
       </c>
       <c r="Q73" s="64">
-        <v>163.76818054940443</v>
+        <v>173.09667733142027</v>
       </c>
       <c r="R73" s="65">
-        <v>167.40205187773827</v>
+        <v>176.96754147263448</v>
       </c>
       <c r="S73" s="64">
-        <v>170.3752193281932</v>
+        <v>180.13461213362791</v>
       </c>
       <c r="T73" s="64">
-        <v>172.85285887023903</v>
+        <v>182.7738376844558</v>
       </c>
       <c r="U73" s="64">
-        <v>174.94932309812393</v>
+        <v>185.00702853515631</v>
       </c>
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
@@ -18569,50 +18658,50 @@
         <v>0.1</v>
       </c>
       <c r="D74" s="64">
-        <v>143.82977329799871</v>
+        <v>152.09340897535233</v>
       </c>
       <c r="E74" s="64">
-        <v>145.06027990042844</v>
+        <v>153.40589662519059</v>
       </c>
       <c r="F74" s="64">
-        <v>146.40491443394353</v>
+        <v>154.84011584457542</v>
       </c>
       <c r="G74" s="65">
-        <v>147.88650248476102</v>
+        <v>156.42041294741608</v>
       </c>
       <c r="H74" s="64">
-        <v>149.5343912351602</v>
+        <v>158.17809033731035</v>
       </c>
       <c r="I74" s="64">
-        <v>151.38695776965966</v>
+        <v>160.15408192665504</v>
       </c>
       <c r="J74" s="64">
-        <v>153.49537153428466</v>
+        <v>162.40296626531295</v>
       </c>
       <c r="M74" s="102"/>
       <c r="N74" s="63">
         <v>0.1</v>
       </c>
       <c r="O74" s="64">
-        <v>132.39030093284276</v>
+        <v>139.89179529015382</v>
       </c>
       <c r="P74" s="64">
-        <v>137.03916139841829</v>
+        <v>144.85038058733249</v>
       </c>
       <c r="Q74" s="64">
-        <v>140.65494176053252</v>
+        <v>148.70705804069371</v>
       </c>
       <c r="R74" s="65">
-        <v>143.54756605022394</v>
+        <v>151.79240000338265</v>
       </c>
       <c r="S74" s="64">
-        <v>145.91425865088053</v>
+        <v>154.31677070012816</v>
       </c>
       <c r="T74" s="64">
-        <v>147.88650248476102</v>
+        <v>156.42041294741608</v>
       </c>
       <c r="U74" s="64">
-        <v>149.55532419035228</v>
+        <v>158.20041792589049</v>
       </c>
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
@@ -18621,50 +18710,50 @@
         <v>0.11</v>
       </c>
       <c r="D75" s="64">
-        <v>126.69379250478708</v>
+        <v>134.02549946581053</v>
       </c>
       <c r="E75" s="64">
-        <v>127.32659604501663</v>
+        <v>134.70134568162149</v>
       </c>
       <c r="F75" s="64">
-        <v>127.99728588134406</v>
+        <v>135.41765518219785</v>
       </c>
       <c r="G75" s="65">
-        <v>128.7125478307278</v>
+        <v>136.18156854720402</v>
       </c>
       <c r="H75" s="64">
-        <v>129.48073916436596</v>
+        <v>137.00201150122075</v>
       </c>
       <c r="I75" s="64">
-        <v>130.31244575910938</v>
+        <v>137.89028996204993</v>
       </c>
       <c r="J75" s="64">
-        <v>131.22127802805207</v>
+        <v>138.86094010972297</v>
       </c>
       <c r="M75" s="102"/>
       <c r="N75" s="63">
         <v>0.11</v>
       </c>
       <c r="O75" s="64">
-        <v>116.1443735772704</v>
+        <v>122.75851941923777</v>
       </c>
       <c r="P75" s="64">
-        <v>119.91482585330763</v>
+        <v>126.78543415762768</v>
       </c>
       <c r="Q75" s="64">
-        <v>122.84739984578101</v>
+        <v>129.91747895415313</v>
       </c>
       <c r="R75" s="65">
-        <v>125.19345903975974</v>
+        <v>132.42311479137351</v>
       </c>
       <c r="S75" s="64">
-        <v>127.11296201665141</v>
+        <v>134.47318047637199</v>
       </c>
       <c r="T75" s="64">
-        <v>128.7125478307278</v>
+        <v>136.18156854720402</v>
       </c>
       <c r="U75" s="64">
-        <v>130.0660435195617</v>
+        <v>137.62712768406197</v>
       </c>
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
@@ -18673,50 +18762,50 @@
         <v>0.12</v>
       </c>
       <c r="D76" s="64">
-        <v>112.7042016941712</v>
+        <v>119.27309937911261</v>
       </c>
       <c r="E76" s="64">
-        <v>112.972648412175</v>
+        <v>119.56017724061363</v>
       </c>
       <c r="F76" s="64">
-        <v>113.24109513017883</v>
+        <v>119.84725510211466</v>
       </c>
       <c r="G76" s="65">
-        <v>113.50954184818262</v>
+        <v>120.13433296361569</v>
       </c>
       <c r="H76" s="64">
-        <v>113.77798856618645</v>
+        <v>120.42141082511675</v>
       </c>
       <c r="I76" s="64">
-        <v>114.04643528419027</v>
+        <v>120.70848868661777</v>
       </c>
       <c r="J76" s="64">
-        <v>114.31488200219408</v>
+        <v>120.9955665481188</v>
       </c>
       <c r="M76" s="103"/>
       <c r="N76" s="63">
         <v>0.12</v>
       </c>
       <c r="O76" s="64">
-        <v>103.16526042134393</v>
+        <v>109.07212213509837</v>
       </c>
       <c r="P76" s="64">
-        <v>106.26854484939554</v>
+        <v>112.39078538365355</v>
       </c>
       <c r="Q76" s="64">
-        <v>108.68221051565791</v>
+        <v>114.9719679103076</v>
       </c>
       <c r="R76" s="65">
-        <v>110.61314304866779</v>
+        <v>117.03691393163083</v>
       </c>
       <c r="S76" s="64">
-        <v>112.19299693931224</v>
+        <v>118.72641522180439</v>
       </c>
       <c r="T76" s="64">
-        <v>113.50954184818262</v>
+        <v>120.13433296361569</v>
       </c>
       <c r="U76" s="64">
-        <v>114.62354138645756</v>
+        <v>121.32564797591755</v>
       </c>
     </row>
   </sheetData>
@@ -18758,7 +18847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBDBC46-018A-47F0-B984-75A3CC3DFB0E}">
   <dimension ref="A1:V1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
